--- a/DictionarysForServer/Words.xlsx
+++ b/DictionarysForServer/Words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,22 @@
     <sheet name="Родственники и отношенияя" sheetId="23" r:id="rId15"/>
     <sheet name="Внешний вид" sheetId="24" r:id="rId16"/>
     <sheet name="Покупки" sheetId="25" r:id="rId17"/>
-    <sheet name="Работа" sheetId="13" r:id="rId18"/>
-    <sheet name="В ресторане" sheetId="14" r:id="rId19"/>
-    <sheet name="Одежда 2" sheetId="15" r:id="rId20"/>
-    <sheet name="Автомобиль" sheetId="16" r:id="rId21"/>
-    <sheet name="Флот" sheetId="17" r:id="rId22"/>
-    <sheet name="Самолет" sheetId="18" r:id="rId23"/>
-    <sheet name="Аэропорт" sheetId="19" r:id="rId24"/>
-    <sheet name="Отель" sheetId="20" r:id="rId25"/>
+    <sheet name="1ДОМЗАДАНИЕ" sheetId="26" r:id="rId18"/>
+    <sheet name="Работа" sheetId="13" r:id="rId19"/>
+    <sheet name="В ресторане" sheetId="14" r:id="rId20"/>
+    <sheet name="Одежда 2" sheetId="15" r:id="rId21"/>
+    <sheet name="Автомобиль" sheetId="16" r:id="rId22"/>
+    <sheet name="Флот" sheetId="17" r:id="rId23"/>
+    <sheet name="Самолет" sheetId="18" r:id="rId24"/>
+    <sheet name="Аэропорт" sheetId="19" r:id="rId25"/>
+    <sheet name="Отель" sheetId="20" r:id="rId26"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7217" uniqueCount="6876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8459" uniqueCount="7078">
   <si>
     <t>Еда</t>
   </si>
@@ -20759,12 +20760,666 @@
   <si>
     <t>[kæʃdɛsk /'rɛdʒɪstə]</t>
   </si>
+  <si>
+    <t>[ˈkærɪktə(r) treɪt]</t>
+  </si>
+  <si>
+    <t>[ˈklevə(r)]</t>
+  </si>
+  <si>
+    <r>
+      <t>['bjuːt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>f(ə)l]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ˈpɒzɪtɪv]</t>
+  </si>
+  <si>
+    <t>[ˈpeɪʃ(ə)nt]</t>
+  </si>
+  <si>
+    <t>['səuʃəb(ə)l]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Веселый </t>
+  </si>
+  <si>
+    <t>[rɪˈspɒnsɪb(ə)l]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Справедливый </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[feər] </t>
+  </si>
+  <si>
+    <t>['sen(t)sɪb(ə)l]</t>
+  </si>
+  <si>
+    <t>['riːz(ə)nəb(ə)l]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скучный </t>
+  </si>
+  <si>
+    <t>['terəb(ə)l]</t>
+  </si>
+  <si>
+    <t>['hɔrəb(ə)l]</t>
+  </si>
+  <si>
+    <t>Голова</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>[ hed ]</t>
+  </si>
+  <si>
+    <t>[ hɛə ]</t>
+  </si>
+  <si>
+    <t>Глаз</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>[ ai ]</t>
+  </si>
+  <si>
+    <t>[ lips ]</t>
+  </si>
+  <si>
+    <t>Зуб (зубы)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth (teeth)         </t>
+  </si>
+  <si>
+    <t>[ feis ]</t>
+  </si>
+  <si>
+    <t>[ nəuz ]</t>
+  </si>
+  <si>
+    <t>Рот</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>[ mauθ ]</t>
+  </si>
+  <si>
+    <t>Ухо</t>
+  </si>
+  <si>
+    <t>Ear</t>
+  </si>
+  <si>
+    <t>[ iə ]</t>
+  </si>
+  <si>
+    <t>Язык</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>[ tʌŋ ]</t>
+  </si>
+  <si>
+    <t>Конечности</t>
+  </si>
+  <si>
+    <t>Рука (от плеча до кисти)</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>[ ɑ:m ]</t>
+  </si>
+  <si>
+    <t>Кисть руки</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>[ hænd ]</t>
+  </si>
+  <si>
+    <t>Палец руки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finger       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[fɪŋɡə(r) ]                                 </t>
+  </si>
+  <si>
+    <t>Ладонь</t>
+  </si>
+  <si>
+    <t>[ pɑ:m ]</t>
+  </si>
+  <si>
+    <t>Плечо</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>[ 'ʃəuldə ]</t>
+  </si>
+  <si>
+    <t>Нога(до ступни)</t>
+  </si>
+  <si>
+    <t>Leg</t>
+  </si>
+  <si>
+    <t>[ leg ]</t>
+  </si>
+  <si>
+    <t>Нога (ступня)/ ноги (ступни)</t>
+  </si>
+  <si>
+    <t>Foot / feet</t>
+  </si>
+  <si>
+    <t>Тело</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>['bɔdɪ]</t>
+  </si>
+  <si>
+    <t>Грудь</t>
+  </si>
+  <si>
+    <t>Breast</t>
+  </si>
+  <si>
+    <t>[ brest ]</t>
+  </si>
+  <si>
+    <t>Живот(желудок)</t>
+  </si>
+  <si>
+    <t>Stomach</t>
+  </si>
+  <si>
+    <t>[ 'stʌmək ]</t>
+  </si>
+  <si>
+    <t>Живот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belly </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈbɛlɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Спина</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>[ bæk ]</t>
+  </si>
+  <si>
+    <t>Талия</t>
+  </si>
+  <si>
+    <t>Waist</t>
+  </si>
+  <si>
+    <t>[ weist ]</t>
+  </si>
+  <si>
+    <t>Шея</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>[ nek ]</t>
+  </si>
+  <si>
+    <t>Ягодицы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttocks </t>
+  </si>
+  <si>
+    <t>[‘bʌtəks]</t>
+  </si>
+  <si>
+    <t>Низкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ʃɔ:t ] </t>
+  </si>
+  <si>
+    <t>[‘mi:dɪəm haɪt]</t>
+  </si>
+  <si>
+    <t>Седые(с проседью)</t>
+  </si>
+  <si>
+    <t>Седые (полностью)</t>
+  </si>
+  <si>
+    <t>[spɑ:s heə]</t>
+  </si>
+  <si>
+    <t>[peɪl skɪn]</t>
+  </si>
+  <si>
+    <t>['hɔləu tʃi:ks]</t>
+  </si>
+  <si>
+    <t>[‘tʃʌbɪ feɪs]</t>
+  </si>
+  <si>
+    <t>Гладко выбритый</t>
+  </si>
+  <si>
+    <t>[feɪs lɪft]</t>
+  </si>
+  <si>
+    <t>['prɔmɪnənt ɪəz]</t>
+  </si>
+  <si>
+    <t>[ ɪə ləub]</t>
+  </si>
+  <si>
+    <t>[blæk aɪ]</t>
+  </si>
+  <si>
+    <t>Толстые / тонкие брови</t>
+  </si>
+  <si>
+    <t>[lɔŋ læʃɪz]</t>
+  </si>
+  <si>
+    <t>[fɔ:ls ailæʃɪs]</t>
+  </si>
+  <si>
+    <t>Широко посаженные</t>
+  </si>
+  <si>
+    <t>[krɔs aɪd]</t>
+  </si>
+  <si>
+    <t>[‘pɪgɪ aɪz]</t>
+  </si>
+  <si>
+    <t>Полные / тонкие губы</t>
+  </si>
+  <si>
+    <t>Верхняя / нижняя губа</t>
+  </si>
+  <si>
+    <t>Кусать губы</t>
+  </si>
+  <si>
+    <t>[baɪt &lt;one's&gt; lɪps]</t>
+  </si>
+  <si>
+    <t>[pɜːs &lt;one's&gt; lɪps]</t>
+  </si>
+  <si>
+    <t>[kɜːl &lt;one's&gt; lɪps]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кривой </t>
+  </si>
+  <si>
+    <t>[pʌg nəuz]</t>
+  </si>
+  <si>
+    <t>[‘bʌlbəs nəuz]</t>
+  </si>
+  <si>
+    <t>[snʌb nəuz]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Круглый </t>
+  </si>
+  <si>
+    <t>[‘snəʊ’waɪt ti:θ]</t>
+  </si>
+  <si>
+    <t>['waɪdlɪ speıst]</t>
+  </si>
+  <si>
+    <t>[fɔ:ls ti:θ]</t>
+  </si>
+  <si>
+    <t>[skweə ʤɔː]</t>
+  </si>
+  <si>
+    <t>['ʃiːpskɪn kəut]</t>
+  </si>
+  <si>
+    <t>[‘wɪntə kəut]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Головные уборы </t>
+  </si>
+  <si>
+    <t>Headwear</t>
+  </si>
+  <si>
+    <t>[sʌn hæt]</t>
+  </si>
+  <si>
+    <t>['wulən hæt]</t>
+  </si>
+  <si>
+    <t>[leg wɔ:məz]</t>
+  </si>
+  <si>
+    <t>[skɜːt su:t]</t>
+  </si>
+  <si>
+    <t>Pinafore dress  sundress</t>
+  </si>
+  <si>
+    <t>['sʌmə dres]</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bu:ts], </t>
+  </si>
+  <si>
+    <t>[haɪ hi:lz]</t>
+  </si>
+  <si>
+    <t>[ləu hi:lz]</t>
+  </si>
+  <si>
+    <t>['wɪntə buːts]</t>
+  </si>
+  <si>
+    <t>[stɪ'letəu hi:lz]</t>
+  </si>
+  <si>
+    <t>['plætfɔːm səul]</t>
+  </si>
+  <si>
+    <t>['plætfɔːm ʃu:z]</t>
+  </si>
+  <si>
+    <t>['haɪkɪŋ buːts]</t>
+  </si>
+  <si>
+    <t>['tenɪs ʃu:z]</t>
+  </si>
+  <si>
+    <t>[ʃɔ:t / lɔŋ sli:v]</t>
+  </si>
+  <si>
+    <t>[mini / ’mɪdɪ / maksi sk3:t]</t>
+  </si>
+  <si>
+    <t>[pli:tid dres]</t>
+  </si>
+  <si>
+    <t>[raund nek]</t>
+  </si>
+  <si>
+    <t>[fə:r]</t>
+  </si>
+  <si>
+    <t>[feɪk fə:r/ ’leðəʳ]</t>
+  </si>
+  <si>
+    <t>[pɔlɪ’ɛstər]</t>
+  </si>
+  <si>
+    <t>[laɪt blu:]</t>
+  </si>
+  <si>
+    <t>[pʊt &lt;smth&gt; ɒn]</t>
+  </si>
+  <si>
+    <t>[teɪk &lt;smth&gt; ɒf]</t>
+  </si>
+  <si>
+    <t>[ʹtraı ɒn]</t>
+  </si>
+  <si>
+    <t>[dres ʌp]</t>
+  </si>
+  <si>
+    <t>[smɑːt kləuðz]</t>
+  </si>
+  <si>
+    <t>['i:vnɪŋ gaun]</t>
+  </si>
+  <si>
+    <t>['dresɪŋ gaun]</t>
+  </si>
+  <si>
+    <t>['pɔlkə dɔt]</t>
+  </si>
+  <si>
+    <t>['fæʃ(ə)nəb(ə)l] </t>
+  </si>
+  <si>
+    <t>[‘bʌt (ə)n]</t>
+  </si>
+  <si>
+    <t>['lɪtl / smɔːl]</t>
+  </si>
+  <si>
+    <t>[ʌn'juːʒ(ə)l  / ʌn'kɔmən]</t>
+  </si>
+  <si>
+    <t>Capricious  / impatient</t>
+  </si>
+  <si>
+    <t>[kə'prɪʃəs   /  ɪm'peɪʃ(ə)nt]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [i:zi:gəuiŋ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> easy-going</t>
+  </si>
+  <si>
+    <t>['ɔːd(ə)n(ə)rɪ  / 'æv(ə)rɪʤ]</t>
+  </si>
+  <si>
+    <t>[aɪˈdiːəl  /  'pɜːfɪkt]</t>
+  </si>
+  <si>
+    <t>['ʧɪəf(ə)l  /  braɪt]</t>
+  </si>
+  <si>
+    <t>['hjuːm(ə)rəs  /  ə'mjuːzɪŋ]</t>
+  </si>
+  <si>
+    <t>['bɔːrɪŋ  / dʌl]</t>
+  </si>
+  <si>
+    <t>[ˈstjuːpɪd  / dʌl]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[lɪmz]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limbs </t>
+  </si>
+  <si>
+    <t>[ fut  /   fi:t ]</t>
+  </si>
+  <si>
+    <t>[‘skɪnɪ / 'slendə / θɪn  ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skinny / slender / thin  </t>
+  </si>
+  <si>
+    <t>Overweight / plump (polite)/ thick / large (neutral)/ chubby (little bit overweight, polite)</t>
+  </si>
+  <si>
+    <t>[əuvə’weɪt / plʌmp/  θɪk / lɑːʤ / ‘tʃʌbɪ]</t>
+  </si>
+  <si>
+    <t>[bɔ:ld  / 'bɔːld'hedɪd]</t>
+  </si>
+  <si>
+    <t>['ʤɪnʤə / red]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[breɪdz  / plæts] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[lɔk  /  kɜːl] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock / curl </t>
+  </si>
+  <si>
+    <t>['skæntɪ /  θɪn]</t>
+  </si>
+  <si>
+    <t>[ˌkliːn'ʃeɪv(ə)n  / smuːð ʧiːkt]</t>
+  </si>
+  <si>
+    <t>[spɔt  /  ‘pɪmpl]</t>
+  </si>
+  <si>
+    <t>[θɪk  /  θɪn 'aɪbrauz]</t>
+  </si>
+  <si>
+    <t>['slɑːntɪŋ  /   'ɑːmənd‘ʃeɪpt aɪz]</t>
+  </si>
+  <si>
+    <t>[ful  /  θɪn lɪps]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['ʌpə  / 'ləuə lɪp]</t>
+  </si>
+  <si>
+    <t>['weɪstkəut  , vɛst]</t>
+  </si>
+  <si>
+    <t>[‘traʊzɪz ,  pænts]</t>
+  </si>
+  <si>
+    <t>[taɪts  /  'pæntɪhəuz]</t>
+  </si>
+  <si>
+    <t>['stɔkɪŋz  ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockings </t>
+  </si>
+  <si>
+    <t>[‘əʊvərɔ:l  /  'kʌv(ə)rɔːlz]</t>
+  </si>
+  <si>
+    <t>['trauzə su:t ,  slæk su:t ,  'pænt s(j)uːt]</t>
+  </si>
+  <si>
+    <t>[bɪ'kiːnɪ  /  swɪms(j)uːt]</t>
+  </si>
+  <si>
+    <t>['treɪnəz , 'sni:kəz]</t>
+  </si>
+  <si>
+    <t>['westən buːts , 'kaubɔɪ buːts]</t>
+  </si>
+  <si>
+    <t>[pɪnz  /  'ɪərɪŋz]</t>
+  </si>
+  <si>
+    <t>[dress , get dresst]</t>
+  </si>
+  <si>
+    <t>[ʌn'dres ,  get ʌn'drest]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[tʌks ,  tʌk'si:dəu , 'dɪnə 'ʤækɪt] </t>
+  </si>
+  <si>
+    <t>['flauərɪ , 'flɔ:r(ə)l]</t>
+  </si>
+  <si>
+    <t>[ tu:θ / tiːθ]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20884,8 +21539,25 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20955,6 +21627,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -21096,7 +21774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -21282,6 +21960,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21967,10 +22684,10 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="67" t="s">
         <v>97</v>
       </c>
     </row>
@@ -21978,8 +22695,8 @@
       <c r="A35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -24214,7 +24931,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>2559</v>
       </c>
@@ -24225,7 +24942,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>2562</v>
       </c>
@@ -29828,7 +30545,7 @@
     <col min="3" max="3" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>5679</v>
       </c>
@@ -29839,7 +30556,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>5682</v>
       </c>
@@ -29883,7 +30600,7 @@
         <v>5691</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>5693</v>
       </c>
@@ -29949,7 +30666,7 @@
         <v>5709</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>5710</v>
       </c>
@@ -29971,7 +30688,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>5715</v>
       </c>
@@ -29982,7 +30699,7 @@
         <v>5716</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>5718</v>
       </c>
@@ -29993,7 +30710,7 @@
         <v>5719</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>5721</v>
       </c>
@@ -30004,7 +30721,7 @@
         <v>5722</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>5724</v>
       </c>
@@ -30015,7 +30732,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>5727</v>
       </c>
@@ -30026,7 +30743,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>5727</v>
       </c>
@@ -30037,7 +30754,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>5730</v>
       </c>
@@ -30048,7 +30765,7 @@
         <v>5731</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>5733</v>
       </c>
@@ -30059,7 +30776,7 @@
         <v>5734</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>5736</v>
       </c>
@@ -30070,7 +30787,7 @@
         <v>5737</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>5739</v>
       </c>
@@ -30081,7 +30798,7 @@
         <v>5740</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>5742</v>
       </c>
@@ -30092,7 +30809,7 @@
         <v>5743</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>5745</v>
       </c>
@@ -30114,7 +30831,7 @@
         <v>5749</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>5750</v>
       </c>
@@ -30125,7 +30842,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>5753</v>
       </c>
@@ -30136,7 +30853,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>5756</v>
       </c>
@@ -30147,7 +30864,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>5759</v>
       </c>
@@ -30158,7 +30875,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>5762</v>
       </c>
@@ -30191,7 +30908,7 @@
         <v>5768</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>5769</v>
       </c>
@@ -30202,7 +30919,7 @@
         <v>5770</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>5772</v>
       </c>
@@ -30213,7 +30930,7 @@
         <v>5773</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>5775</v>
       </c>
@@ -30224,7 +30941,7 @@
         <v>5776</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>5778</v>
       </c>
@@ -30235,7 +30952,7 @@
         <v>5779</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>5781</v>
       </c>
@@ -30246,7 +30963,7 @@
         <v>5782</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>5784</v>
       </c>
@@ -30257,7 +30974,7 @@
         <v>5785</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>5787</v>
       </c>
@@ -30268,7 +30985,7 @@
         <v>5788</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>5790</v>
       </c>
@@ -30279,7 +30996,7 @@
         <v>5791</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>5793</v>
       </c>
@@ -30290,7 +31007,7 @@
         <v>5794</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>5796</v>
       </c>
@@ -30301,7 +31018,7 @@
         <v>5797</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>5799</v>
       </c>
@@ -30312,7 +31029,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>5802</v>
       </c>
@@ -30323,7 +31040,7 @@
         <v>5803</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>5805</v>
       </c>
@@ -30334,7 +31051,7 @@
         <v>5806</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>5808</v>
       </c>
@@ -30345,7 +31062,7 @@
         <v>5809</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>5811</v>
       </c>
@@ -30356,7 +31073,7 @@
         <v>5812</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>5814</v>
       </c>
@@ -30367,7 +31084,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>5814</v>
       </c>
@@ -30378,7 +31095,7 @@
         <v>5817</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>5819</v>
       </c>
@@ -30389,7 +31106,7 @@
         <v>5820</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>5822</v>
       </c>
@@ -30400,7 +31117,7 @@
         <v>5823</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>5825</v>
       </c>
@@ -30411,7 +31128,7 @@
         <v>5826</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>5828</v>
       </c>
@@ -30433,7 +31150,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>5834</v>
       </c>
@@ -30444,7 +31161,7 @@
         <v>5835</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>5837</v>
       </c>
@@ -30455,7 +31172,7 @@
         <v>5838</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>5840</v>
       </c>
@@ -30466,7 +31183,7 @@
         <v>5841</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>5843</v>
       </c>
@@ -30477,7 +31194,7 @@
         <v>5844</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>5846</v>
       </c>
@@ -30488,7 +31205,7 @@
         <v>5847</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>5849</v>
       </c>
@@ -30499,7 +31216,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>5852</v>
       </c>
@@ -30510,7 +31227,7 @@
         <v>5853</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>5855</v>
       </c>
@@ -30521,7 +31238,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>5858</v>
       </c>
@@ -30543,7 +31260,7 @@
         <v>5862</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>5863</v>
       </c>
@@ -30554,7 +31271,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>5866</v>
       </c>
@@ -30565,7 +31282,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>5869</v>
       </c>
@@ -30576,7 +31293,7 @@
         <v>5870</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>5872</v>
       </c>
@@ -30609,7 +31326,7 @@
         <v>5878</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>5879</v>
       </c>
@@ -30620,7 +31337,7 @@
         <v>5880</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>5882</v>
       </c>
@@ -30631,7 +31348,7 @@
         <v>5883</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>5885</v>
       </c>
@@ -30642,7 +31359,7 @@
         <v>5886</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>5888</v>
       </c>
@@ -30653,7 +31370,7 @@
         <v>5889</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>5891</v>
       </c>
@@ -30664,7 +31381,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>5894</v>
       </c>
@@ -30675,7 +31392,7 @@
         <v>5895</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>5897</v>
       </c>
@@ -30686,7 +31403,7 @@
         <v>5898</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>5900</v>
       </c>
@@ -30697,7 +31414,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>5903</v>
       </c>
@@ -30708,7 +31425,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>5906</v>
       </c>
@@ -30719,7 +31436,7 @@
         <v>5907</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>5909</v>
       </c>
@@ -30730,7 +31447,7 @@
         <v>5910</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>5912</v>
       </c>
@@ -30741,7 +31458,7 @@
         <v>5913</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>5915</v>
       </c>
@@ -30752,7 +31469,7 @@
         <v>5916</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>5918</v>
       </c>
@@ -30763,7 +31480,7 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>5921</v>
       </c>
@@ -30774,7 +31491,7 @@
         <v>5922</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>5924</v>
       </c>
@@ -30785,7 +31502,7 @@
         <v>5925</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>5927</v>
       </c>
@@ -30796,7 +31513,7 @@
         <v>5928</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>5930</v>
       </c>
@@ -30818,7 +31535,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>5935</v>
       </c>
@@ -30829,7 +31546,7 @@
         <v>5936</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>5938</v>
       </c>
@@ -30840,7 +31557,7 @@
         <v>5939</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>5941</v>
       </c>
@@ -30851,7 +31568,7 @@
         <v>5942</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>5944</v>
       </c>
@@ -30884,7 +31601,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>5951</v>
       </c>
@@ -30895,7 +31612,7 @@
         <v>5952</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>5954</v>
       </c>
@@ -30906,7 +31623,7 @@
         <v>5955</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="45" t="s">
         <v>5957</v>
       </c>
@@ -30917,7 +31634,7 @@
         <v>5958</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="111.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>5960</v>
       </c>
@@ -30928,7 +31645,7 @@
         <v>5961</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>5963</v>
       </c>
@@ -30939,7 +31656,7 @@
         <v>5964</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>5966</v>
       </c>
@@ -30950,7 +31667,7 @@
         <v>5967</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>5969</v>
       </c>
@@ -30961,7 +31678,7 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>5972</v>
       </c>
@@ -30972,7 +31689,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>5975</v>
       </c>
@@ -30983,7 +31700,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>5978</v>
       </c>
@@ -31005,7 +31722,7 @@
         <v>5982</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>5983</v>
       </c>
@@ -31016,7 +31733,7 @@
         <v>5984</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>5986</v>
       </c>
@@ -31027,7 +31744,7 @@
         <v>5987</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>5989</v>
       </c>
@@ -31038,7 +31755,7 @@
         <v>5990</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>5992</v>
       </c>
@@ -31049,7 +31766,7 @@
         <v>5993</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>5995</v>
       </c>
@@ -31060,7 +31777,7 @@
         <v>5996</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>5998</v>
       </c>
@@ -31071,7 +31788,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>6001</v>
       </c>
@@ -31082,7 +31799,7 @@
         <v>6002</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>6004</v>
       </c>
@@ -31093,7 +31810,7 @@
         <v>6005</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>6007</v>
       </c>
@@ -31104,7 +31821,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>6010</v>
       </c>
@@ -31115,7 +31832,7 @@
         <v>6011</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>6013</v>
       </c>
@@ -31126,7 +31843,7 @@
         <v>6014</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>6016</v>
       </c>
@@ -31137,7 +31854,7 @@
         <v>6017</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>6019</v>
       </c>
@@ -31148,7 +31865,7 @@
         <v>6020</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>6022</v>
       </c>
@@ -31159,7 +31876,7 @@
         <v>6023</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>6025</v>
       </c>
@@ -31170,7 +31887,7 @@
         <v>6026</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>6028</v>
       </c>
@@ -31181,7 +31898,7 @@
         <v>6029</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>6031</v>
       </c>
@@ -31192,7 +31909,7 @@
         <v>6032</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>6034</v>
       </c>
@@ -31203,7 +31920,7 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>6037</v>
       </c>
@@ -31214,7 +31931,7 @@
         <v>6038</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>6040</v>
       </c>
@@ -31225,7 +31942,7 @@
         <v>6041</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>6043</v>
       </c>
@@ -31236,7 +31953,7 @@
         <v>6044</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>6046</v>
       </c>
@@ -31247,7 +31964,7 @@
         <v>6047</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>6049</v>
       </c>
@@ -31258,7 +31975,7 @@
         <v>6050</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>6052</v>
       </c>
@@ -31269,7 +31986,7 @@
         <v>6053</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>6055</v>
       </c>
@@ -31280,7 +31997,7 @@
         <v>6056</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>6058</v>
       </c>
@@ -31291,7 +32008,7 @@
         <v>6059</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>6061</v>
       </c>
@@ -31302,7 +32019,7 @@
         <v>6062</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>6064</v>
       </c>
@@ -31313,7 +32030,7 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>6067</v>
       </c>
@@ -31324,7 +32041,7 @@
         <v>6068</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>6070</v>
       </c>
@@ -31335,7 +32052,7 @@
         <v>6071</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>6073</v>
       </c>
@@ -31346,7 +32063,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>6076</v>
       </c>
@@ -31357,7 +32074,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>6079</v>
       </c>
@@ -31368,7 +32085,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>6082</v>
       </c>
@@ -31379,7 +32096,7 @@
         <v>6083</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>6085</v>
       </c>
@@ -31390,7 +32107,7 @@
         <v>6086</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>6088</v>
       </c>
@@ -31401,7 +32118,7 @@
         <v>6089</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>6091</v>
       </c>
@@ -31412,7 +32129,7 @@
         <v>6092</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>6094</v>
       </c>
@@ -31423,7 +32140,7 @@
         <v>6095</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>6097</v>
       </c>
@@ -31434,7 +32151,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>6100</v>
       </c>
@@ -31445,7 +32162,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>6103</v>
       </c>
@@ -31456,7 +32173,7 @@
         <v>6104</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>6106</v>
       </c>
@@ -31467,7 +32184,7 @@
         <v>6107</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>5972</v>
       </c>
@@ -31478,7 +32195,7 @@
         <v>6109</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>6111</v>
       </c>
@@ -31489,7 +32206,7 @@
         <v>6112</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>6114</v>
       </c>
@@ -31500,7 +32217,7 @@
         <v>6115</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>6117</v>
       </c>
@@ -31511,7 +32228,7 @@
         <v>6118</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>6120</v>
       </c>
@@ -31522,7 +32239,7 @@
         <v>6121</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>6123</v>
       </c>
@@ -31533,7 +32250,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>6126</v>
       </c>
@@ -31544,7 +32261,7 @@
         <v>6127</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>6129</v>
       </c>
@@ -31555,7 +32272,7 @@
         <v>6130</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>6132</v>
       </c>
@@ -31566,7 +32283,7 @@
         <v>6133</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>6135</v>
       </c>
@@ -31577,7 +32294,7 @@
         <v>6136</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>6138</v>
       </c>
@@ -33234,7 +33951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -33245,7 +33962,7 @@
     <col min="3" max="3" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>6588</v>
       </c>
@@ -33256,7 +33973,7 @@
         <v>6589</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>6591</v>
       </c>
@@ -33267,7 +33984,7 @@
         <v>6592</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>6594</v>
       </c>
@@ -33278,7 +33995,7 @@
         <v>6595</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>6597</v>
       </c>
@@ -33289,7 +34006,7 @@
         <v>6598</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>874</v>
       </c>
@@ -33311,7 +34028,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>6603</v>
       </c>
@@ -33322,7 +34039,7 @@
         <v>6604</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>6606</v>
       </c>
@@ -33333,7 +34050,7 @@
         <v>6607</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>6609</v>
       </c>
@@ -33366,7 +34083,7 @@
         <v>6616</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>6618</v>
       </c>
@@ -33388,7 +34105,7 @@
         <v>6622</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>766</v>
       </c>
@@ -33399,7 +34116,7 @@
         <v>6623</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>6625</v>
       </c>
@@ -33410,7 +34127,7 @@
         <v>6626</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>6628</v>
       </c>
@@ -33421,7 +34138,7 @@
         <v>6629</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>6591</v>
       </c>
@@ -33432,7 +34149,7 @@
         <v>6592</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>6597</v>
       </c>
@@ -33443,7 +34160,7 @@
         <v>6598</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>874</v>
       </c>
@@ -33465,7 +34182,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>6631</v>
       </c>
@@ -33487,7 +34204,7 @@
         <v>6635</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>6636</v>
       </c>
@@ -33498,7 +34215,7 @@
         <v>6637</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>6639</v>
       </c>
@@ -33509,7 +34226,7 @@
         <v>6640</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>6642</v>
       </c>
@@ -33531,7 +34248,7 @@
         <v>6646</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
         <v>6647</v>
       </c>
@@ -33542,7 +34259,7 @@
         <v>6648</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>6650</v>
       </c>
@@ -33575,7 +34292,7 @@
         <v>6657</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
         <v>6658</v>
       </c>
@@ -33586,7 +34303,7 @@
         <v>6659</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>6661</v>
       </c>
@@ -33597,7 +34314,7 @@
         <v>6662</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
         <v>6664</v>
       </c>
@@ -33608,7 +34325,7 @@
         <v>6665</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
         <v>6667</v>
       </c>
@@ -33619,7 +34336,7 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
         <v>6670</v>
       </c>
@@ -33630,7 +34347,7 @@
         <v>6671</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="49" t="s">
         <v>6673</v>
       </c>
@@ -33641,7 +34358,7 @@
         <v>6674</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>6676</v>
       </c>
@@ -33652,7 +34369,7 @@
         <v>6677</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>6679</v>
       </c>
@@ -33663,7 +34380,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
         <v>6682</v>
       </c>
@@ -33674,7 +34391,7 @@
         <v>6683</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
         <v>6685</v>
       </c>
@@ -33685,7 +34402,7 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="49" t="s">
         <v>6688</v>
       </c>
@@ -33696,7 +34413,7 @@
         <v>6689</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="53" t="s">
         <v>6691</v>
       </c>
@@ -33707,7 +34424,7 @@
         <v>6692</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>6694</v>
       </c>
@@ -33729,7 +34446,7 @@
         <v>6698</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="49" t="s">
         <v>6700</v>
       </c>
@@ -33740,7 +34457,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="49" t="s">
         <v>6703</v>
       </c>
@@ -33751,7 +34468,7 @@
         <v>6704</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="49" t="s">
         <v>6706</v>
       </c>
@@ -33762,7 +34479,7 @@
         <v>6707</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="49" t="s">
         <v>6709</v>
       </c>
@@ -33773,7 +34490,7 @@
         <v>6710</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="49" t="s">
         <v>1212</v>
       </c>
@@ -33784,7 +34501,7 @@
         <v>6712</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="49" t="s">
         <v>3432</v>
       </c>
@@ -33795,7 +34512,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="49" t="s">
         <v>6715</v>
       </c>
@@ -33806,7 +34523,7 @@
         <v>6716</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
         <v>6718</v>
       </c>
@@ -33817,7 +34534,7 @@
         <v>6719</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>6721</v>
       </c>
@@ -33828,7 +34545,7 @@
         <v>6722</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
         <v>6724</v>
       </c>
@@ -33839,7 +34556,7 @@
         <v>6725</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="49" t="s">
         <v>6727</v>
       </c>
@@ -33872,7 +34589,7 @@
         <v>6734</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="49" t="s">
         <v>6736</v>
       </c>
@@ -33883,7 +34600,7 @@
         <v>6737</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="49" t="s">
         <v>6739</v>
       </c>
@@ -33894,7 +34611,7 @@
         <v>6740</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
         <v>6742</v>
       </c>
@@ -33905,7 +34622,7 @@
         <v>6743</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="49" t="s">
         <v>6745</v>
       </c>
@@ -33916,7 +34633,7 @@
         <v>6746</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="49" t="s">
         <v>6748</v>
       </c>
@@ -33927,7 +34644,7 @@
         <v>6749</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="49" t="s">
         <v>6751</v>
       </c>
@@ -33938,7 +34655,7 @@
         <v>6752</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="49" t="s">
         <v>6754</v>
       </c>
@@ -33949,7 +34666,7 @@
         <v>6755</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="49" t="s">
         <v>6757</v>
       </c>
@@ -33960,7 +34677,7 @@
         <v>6758</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="49" t="s">
         <v>6760</v>
       </c>
@@ -33971,7 +34688,7 @@
         <v>6761</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="49" t="s">
         <v>6763</v>
       </c>
@@ -33982,7 +34699,7 @@
         <v>6764</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="49" t="s">
         <v>6766</v>
       </c>
@@ -33993,7 +34710,7 @@
         <v>6767</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="49" t="s">
         <v>6769</v>
       </c>
@@ -34004,7 +34721,7 @@
         <v>6770</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="49" t="s">
         <v>6772</v>
       </c>
@@ -34015,7 +34732,7 @@
         <v>6773</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="53" t="s">
         <v>2852</v>
       </c>
@@ -34026,7 +34743,7 @@
         <v>6775</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="49" t="s">
         <v>6777</v>
       </c>
@@ -34037,7 +34754,7 @@
         <v>6778</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="49" t="s">
         <v>6780</v>
       </c>
@@ -34048,7 +34765,7 @@
         <v>6781</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="49" t="s">
         <v>6783</v>
       </c>
@@ -34059,7 +34776,7 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="49" t="s">
         <v>6786</v>
       </c>
@@ -34070,7 +34787,7 @@
         <v>6787</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="49" t="s">
         <v>6788</v>
       </c>
@@ -34103,7 +34820,7 @@
         <v>6793</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="49" t="s">
         <v>2852</v>
       </c>
@@ -34114,7 +34831,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="49" t="s">
         <v>6796</v>
       </c>
@@ -34136,7 +34853,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="49" t="s">
         <v>6802</v>
       </c>
@@ -34147,7 +34864,7 @@
         <v>6803</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="49" t="s">
         <v>6805</v>
       </c>
@@ -34158,7 +34875,7 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="49" t="s">
         <v>6808</v>
       </c>
@@ -34169,7 +34886,7 @@
         <v>6809</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="49" t="s">
         <v>6811</v>
       </c>
@@ -34180,7 +34897,7 @@
         <v>6812</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="49" t="s">
         <v>6814</v>
       </c>
@@ -34191,7 +34908,7 @@
         <v>6815</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="49" t="s">
         <v>6817</v>
       </c>
@@ -34202,7 +34919,7 @@
         <v>6818</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="53" t="s">
         <v>6820</v>
       </c>
@@ -34213,7 +34930,7 @@
         <v>6821</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="49" t="s">
         <v>6823</v>
       </c>
@@ -34224,7 +34941,7 @@
         <v>6824</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="49" t="s">
         <v>6826</v>
       </c>
@@ -34235,7 +34952,7 @@
         <v>6827</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="49" t="s">
         <v>6829</v>
       </c>
@@ -34246,7 +34963,7 @@
         <v>6830</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="49" t="s">
         <v>6832</v>
       </c>
@@ -34257,7 +34974,7 @@
         <v>6833</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="49" t="s">
         <v>6835</v>
       </c>
@@ -34268,7 +34985,7 @@
         <v>6836</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="49" t="s">
         <v>6838</v>
       </c>
@@ -34279,7 +34996,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="49" t="s">
         <v>6841</v>
       </c>
@@ -34290,7 +35007,7 @@
         <v>6842</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="49" t="s">
         <v>6844</v>
       </c>
@@ -34301,7 +35018,7 @@
         <v>6845</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="49" t="s">
         <v>6847</v>
       </c>
@@ -34312,7 +35029,7 @@
         <v>6848</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="51" t="s">
         <v>6849</v>
       </c>
@@ -34323,7 +35040,7 @@
         <v>6850</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="49" t="s">
         <v>6852</v>
       </c>
@@ -34334,7 +35051,7 @@
         <v>6853</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="49" t="s">
         <v>6855</v>
       </c>
@@ -34345,7 +35062,7 @@
         <v>6856</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="49" t="s">
         <v>6857</v>
       </c>
@@ -34356,7 +35073,7 @@
         <v>6858</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="49" t="s">
         <v>6860</v>
       </c>
@@ -34367,7 +35084,7 @@
         <v>6861</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="49" t="s">
         <v>6863</v>
       </c>
@@ -34378,7 +35095,7 @@
         <v>6864</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="49" t="s">
         <v>6866</v>
       </c>
@@ -34395,6 +35112,4586 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C414"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>4967</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>4969</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4972</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5066</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>4973</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7031</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>4976</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4933</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4980</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4983</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4986</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>4987</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4989</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5005</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>5011</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>5015</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>5018</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>5021</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>5023</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>5003</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>5035</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>5037</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>5024</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>5026</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>5027</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>5029</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>5030</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>5033</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7032</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>5041</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>6876</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>5050</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>5053</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>5055</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>5056</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7034</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>5006</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>5008</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>5058</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>5060</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>5063</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>7035</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>5071</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>5074</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
+        <v>4990</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>4992</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>4996</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>4998</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
+        <v>4999</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>7037</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>5075</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26" t="s">
+        <v>5080</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>5082</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>6877</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>5309</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>5268</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
+        <v>5089</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>6878</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="26" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>5094</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="26" t="s">
+        <v>5098</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>5100</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>5103</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>5106</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
+        <v>5113</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>7038</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>5115</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>5117</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>5118</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>5120</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
+        <v>5121</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>6879</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>5124</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>6880</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
+        <v>5138</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>5140</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>5150</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>5153</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>5155</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
+        <v>5156</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>6881</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
+        <v>6882</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>7039</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
+        <v>5281</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
+        <v>5189</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>5191</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
+        <v>5159</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>5260</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>5262</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>5162</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>5164</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="26" t="s">
+        <v>5165</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>6883</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
+        <v>5129</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>5131</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
+        <v>5192</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>5194</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
+        <v>6884</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>6886</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="26" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>5079</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>5086</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>5088</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26" t="s">
+        <v>5230</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>5232</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="26" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>5173</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="26" t="s">
+        <v>5174</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>5176</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="26" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="26" t="s">
+        <v>5180</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>5182</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="26" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>5274</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="26" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="26" t="s">
+        <v>5278</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="26" t="s">
+        <v>5144</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>5146</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="26" t="s">
+        <v>5183</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>5185</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="26" t="s">
+        <v>5095</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>5097</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="26" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>5143</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="26" t="s">
+        <v>5147</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>5149</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="26" t="s">
+        <v>5186</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="26" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>6887</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="26" t="s">
+        <v>5195</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>5198</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>5200</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="26" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>5203</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
+        <v>5209</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>5211</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="26" t="s">
+        <v>5132</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>5134</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="26" t="s">
+        <v>5218</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>5220</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="26" t="s">
+        <v>5127</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>7040</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="26" t="s">
+        <v>5221</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>5223</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="26" t="s">
+        <v>5224</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>5226</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>5229</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="26" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>5235</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="26" t="s">
+        <v>5239</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>5241</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="26" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>5243</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="26" t="s">
+        <v>5251</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>5253</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="26" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>5256</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="26" t="s">
+        <v>5263</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>5265</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="26" t="s">
+        <v>5284</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>5286</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="26" t="s">
+        <v>5290</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>6888</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="26" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>5316</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="26" t="s">
+        <v>5323</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>5325</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="26" t="s">
+        <v>5331</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>5333</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>5336</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="26" t="s">
+        <v>5337</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>4927</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="26" t="s">
+        <v>5339</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>5341</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="26" t="s">
+        <v>5345</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>5347</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="26" t="s">
+        <v>5348</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>5350</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="26" t="s">
+        <v>6889</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>7041</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="26" t="s">
+        <v>5354</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>5356</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="26" t="s">
+        <v>5365</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>5367</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="26" t="s">
+        <v>5371</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>7042</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="26" t="s">
+        <v>5373</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>6890</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="26" t="s">
+        <v>5382</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>5384</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="26" t="s">
+        <v>5342</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>5344</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="26" t="s">
+        <v>5359</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>5361</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="26" t="s">
+        <v>5376</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>5378</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="26" t="s">
+        <v>5351</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>5353</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="26" t="s">
+        <v>5373</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>6891</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="26" t="s">
+        <v>5442</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="26" t="s">
+        <v>5451</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>5453</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="26" t="s">
+        <v>5460</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>5462</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="26" t="s">
+        <v>5402</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>5404</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="26" t="s">
+        <v>5405</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>5407</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="26" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>5410</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="26" t="s">
+        <v>5411</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>5413</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="26" t="s">
+        <v>5414</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>5416</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="71" t="s">
+        <v>6892</v>
+      </c>
+      <c r="B128" s="73" t="s">
+        <v>6894</v>
+      </c>
+      <c r="C128" s="72" t="s">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="49" t="s">
+        <v>6210</v>
+      </c>
+      <c r="B129" s="74" t="s">
+        <v>6895</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="49" t="s">
+        <v>6896</v>
+      </c>
+      <c r="B130" s="74" t="s">
+        <v>6898</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="49" t="s">
+        <v>6477</v>
+      </c>
+      <c r="B131" s="74" t="s">
+        <v>6899</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>6478</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="49" t="s">
+        <v>6900</v>
+      </c>
+      <c r="B132" s="74" t="s">
+        <v>7077</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="49" t="s">
+        <v>6297</v>
+      </c>
+      <c r="B133" s="74" t="s">
+        <v>6902</v>
+      </c>
+      <c r="C133" s="50" t="s">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="49" t="s">
+        <v>6498</v>
+      </c>
+      <c r="B134" s="74" t="s">
+        <v>6903</v>
+      </c>
+      <c r="C134" s="50" t="s">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="49" t="s">
+        <v>6904</v>
+      </c>
+      <c r="B135" s="74" t="s">
+        <v>6906</v>
+      </c>
+      <c r="C135" s="50" t="s">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="49" t="s">
+        <v>6907</v>
+      </c>
+      <c r="B136" s="74" t="s">
+        <v>6909</v>
+      </c>
+      <c r="C136" s="50" t="s">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="49" t="s">
+        <v>6910</v>
+      </c>
+      <c r="B137" s="74" t="s">
+        <v>6912</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="71" t="s">
+        <v>6913</v>
+      </c>
+      <c r="B138" s="73" t="s">
+        <v>7043</v>
+      </c>
+      <c r="C138" s="72" t="s">
+        <v>7044</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="49" t="s">
+        <v>6914</v>
+      </c>
+      <c r="B139" s="74" t="s">
+        <v>6916</v>
+      </c>
+      <c r="C139" s="50" t="s">
+        <v>6915</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="49" t="s">
+        <v>6917</v>
+      </c>
+      <c r="B140" s="74" t="s">
+        <v>6919</v>
+      </c>
+      <c r="C140" s="50" t="s">
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="49" t="s">
+        <v>6920</v>
+      </c>
+      <c r="B141" s="74" t="s">
+        <v>6922</v>
+      </c>
+      <c r="C141" s="50" t="s">
+        <v>6921</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="49" t="s">
+        <v>6923</v>
+      </c>
+      <c r="B142" s="74" t="s">
+        <v>6924</v>
+      </c>
+      <c r="C142" s="50" t="s">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="49" t="s">
+        <v>6925</v>
+      </c>
+      <c r="B143" s="74" t="s">
+        <v>6927</v>
+      </c>
+      <c r="C143" s="50" t="s">
+        <v>6926</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="49" t="s">
+        <v>6928</v>
+      </c>
+      <c r="B144" s="74" t="s">
+        <v>6930</v>
+      </c>
+      <c r="C144" s="50" t="s">
+        <v>6929</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="49" t="s">
+        <v>6931</v>
+      </c>
+      <c r="B145" s="74" t="s">
+        <v>7045</v>
+      </c>
+      <c r="C145" s="50" t="s">
+        <v>6932</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="71" t="s">
+        <v>6933</v>
+      </c>
+      <c r="B146" s="73" t="s">
+        <v>6935</v>
+      </c>
+      <c r="C146" s="72" t="s">
+        <v>6934</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="49" t="s">
+        <v>6936</v>
+      </c>
+      <c r="B147" s="74" t="s">
+        <v>6938</v>
+      </c>
+      <c r="C147" s="50" t="s">
+        <v>6937</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="49" t="s">
+        <v>6939</v>
+      </c>
+      <c r="B148" s="74" t="s">
+        <v>6941</v>
+      </c>
+      <c r="C148" s="50" t="s">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="49" t="s">
+        <v>6942</v>
+      </c>
+      <c r="B149" s="75" t="s">
+        <v>6944</v>
+      </c>
+      <c r="C149" s="50" t="s">
+        <v>6943</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="49" t="s">
+        <v>6945</v>
+      </c>
+      <c r="B150" s="74" t="s">
+        <v>6947</v>
+      </c>
+      <c r="C150" s="50" t="s">
+        <v>6946</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="49" t="s">
+        <v>6948</v>
+      </c>
+      <c r="B151" s="74" t="s">
+        <v>6950</v>
+      </c>
+      <c r="C151" s="50" t="s">
+        <v>6949</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="49" t="s">
+        <v>6951</v>
+      </c>
+      <c r="B152" s="74" t="s">
+        <v>6953</v>
+      </c>
+      <c r="C152" s="50" t="s">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="49" t="s">
+        <v>6954</v>
+      </c>
+      <c r="B153" s="74" t="s">
+        <v>6956</v>
+      </c>
+      <c r="C153" s="50" t="s">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="76" t="s">
+        <v>6933</v>
+      </c>
+      <c r="B154" s="77" t="s">
+        <v>6935</v>
+      </c>
+      <c r="C154" s="77" t="s">
+        <v>6934</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="26" t="s">
+        <v>6180</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>6182</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="26" t="s">
+        <v>6183</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>6185</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="26" t="s">
+        <v>6157</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>7046</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>7047</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="25" t="s">
+        <v>6169</v>
+      </c>
+      <c r="B158" s="36" t="s">
+        <v>7049</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>7048</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="26" t="s">
+        <v>6957</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>6959</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="26" t="s">
+        <v>6154</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>6156</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="26" t="s">
+        <v>6207</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>6960</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="69" t="s">
+        <v>6210</v>
+      </c>
+      <c r="B162" s="70" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C162" s="70" t="s">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="26" t="s">
+        <v>6212</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>7050</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>6213</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="26" t="s">
+        <v>6223</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>6225</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>6224</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="26" t="s">
+        <v>6217</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>6219</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="26" t="s">
+        <v>6220</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>6222</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="26" t="s">
+        <v>6961</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>6228</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="26" t="s">
+        <v>6962</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>6246</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="26" t="s">
+        <v>6247</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>6249</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>6248</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="26" t="s">
+        <v>6240</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>7051</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>6241</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="26" t="s">
+        <v>6262</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>6264</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="26" t="s">
+        <v>6265</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>7052</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>6266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="26" t="s">
+        <v>6267</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>7053</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="26" t="s">
+        <v>6269</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>6579</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="26" t="s">
+        <v>6271</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>6273</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>6272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="26" t="s">
+        <v>6274</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>6276</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="26" t="s">
+        <v>6277</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>6279</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="26" t="s">
+        <v>6280</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>6963</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>6281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="26" t="s">
+        <v>6232</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>7055</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="26" t="s">
+        <v>6234</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>6236</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>6235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="26" t="s">
+        <v>6237</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>6239</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="26" t="s">
+        <v>6294</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>6296</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="69" t="s">
+        <v>6297</v>
+      </c>
+      <c r="B183" s="70" t="s">
+        <v>6299</v>
+      </c>
+      <c r="C183" s="70" t="s">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="26" t="s">
+        <v>6300</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>6964</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>6301</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="26" t="s">
+        <v>6314</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>6316</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="26" t="s">
+        <v>6317</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>6319</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>6318</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="26" t="s">
+        <v>6306</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>6308</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>6307</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="26" t="s">
+        <v>6329</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>6331</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>6330</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="26" t="s">
+        <v>6335</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>6965</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="26" t="s">
+        <v>6341</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>6966</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>6342</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="26" t="s">
+        <v>6967</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>7056</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="26" t="s">
+        <v>6352</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>6354</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>6353</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="26" t="s">
+        <v>6355</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>6968</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>6356</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="26" t="s">
+        <v>6323</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>6325</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>6324</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="26" t="s">
+        <v>6320</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>6322</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="26" t="s">
+        <v>6311</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>6313</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>6312</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="26" t="s">
+        <v>6303</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>6305</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="26" t="s">
+        <v>6358</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>6969</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>6359</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="26" t="s">
+        <v>6326</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>6328</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>6327</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="26" t="s">
+        <v>6361</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>6970</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="26" t="s">
+        <v>6309</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>7057</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="69" t="s">
+        <v>6364</v>
+      </c>
+      <c r="B202" s="70" t="s">
+        <v>6366</v>
+      </c>
+      <c r="C202" s="70" t="s">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="69" t="s">
+        <v>6403</v>
+      </c>
+      <c r="B203" s="70" t="s">
+        <v>6405</v>
+      </c>
+      <c r="C203" s="70" t="s">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="26" t="s">
+        <v>6421</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>6971</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="26" t="s">
+        <v>6972</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>7058</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="26" t="s">
+        <v>6406</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>6973</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>6407</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="26" t="s">
+        <v>6409</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>6974</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="26" t="s">
+        <v>6975</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>6414</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>6413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="26" t="s">
+        <v>6438</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>7059</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="26" t="s">
+        <v>6424</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>6976</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>6425</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="26" t="s">
+        <v>6427</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>6977</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>6428</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="26" t="s">
+        <v>6445</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>6447</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="26" t="s">
+        <v>6234</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>6449</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="69" t="s">
+        <v>6477</v>
+      </c>
+      <c r="B214" s="70" t="s">
+        <v>6479</v>
+      </c>
+      <c r="C214" s="70" t="s">
+        <v>6478</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="26" t="s">
+        <v>6978</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>7060</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>6484</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="26" t="s">
+        <v>6979</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>7061</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="26" t="s">
+        <v>6980</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>6981</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="26" t="s">
+        <v>6492</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>6982</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="26" t="s">
+        <v>6495</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>6983</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="69" t="s">
+        <v>6498</v>
+      </c>
+      <c r="B220" s="70" t="s">
+        <v>6500</v>
+      </c>
+      <c r="C220" s="70" t="s">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="26" t="s">
+        <v>6501</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>6503</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>6502</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="26" t="s">
+        <v>6504</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>6506</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>6505</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="26" t="s">
+        <v>6507</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>6509</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>6508</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="26" t="s">
+        <v>6510</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>6512</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="26" t="s">
+        <v>6984</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>6515</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>6514</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="26" t="s">
+        <v>6516</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>6985</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>6517</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="26" t="s">
+        <v>6519</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>6986</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="26" t="s">
+        <v>6522</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>6987</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="69" t="s">
+        <v>6525</v>
+      </c>
+      <c r="B229" s="70" t="s">
+        <v>6527</v>
+      </c>
+      <c r="C229" s="70" t="s">
+        <v>6526</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="26" t="s">
+        <v>6528</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>6530</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="26" t="s">
+        <v>6531</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>6533</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="26" t="s">
+        <v>6534</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>6536</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>6535</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="26" t="s">
+        <v>6540</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>6542</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="26" t="s">
+        <v>6988</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>6539</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>6538</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="69" t="s">
+        <v>6543</v>
+      </c>
+      <c r="B235" s="70" t="s">
+        <v>6545</v>
+      </c>
+      <c r="C235" s="70" t="s">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="26" t="s">
+        <v>6546</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>6989</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>6547</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="26" t="s">
+        <v>6549</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>6551</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="26" t="s">
+        <v>6555</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>6586</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>6556</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="26" t="s">
+        <v>6232</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>6990</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="26" t="s">
+        <v>6559</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>6587</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="26" t="s">
+        <v>6564</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>6991</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="26" t="s">
+        <v>6567</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>6992</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>6568</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="78" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B243" s="79" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C243" s="79" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="26" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="26" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="26" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="26" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="26" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="26" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="26" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>6993</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="26" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>6994</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="69" t="s">
+        <v>6995</v>
+      </c>
+      <c r="B252" s="70" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C252" s="70" t="s">
+        <v>6996</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="26" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="26" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="26" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="26" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>6997</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="26" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>6998</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="69" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B258" s="70" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C258" s="70" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="26" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="26" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="26" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="26" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="26" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="26" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="26" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="26" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="26" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="26" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>7062</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="26" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="69" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B270" s="70" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C270" s="70" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="26" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>7063</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="26" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="26" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="26" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="26" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>7064</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="26" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="26" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="26" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="26" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>6999</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="26" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="26" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>7065</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>7066</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="69" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B282" s="70" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C282" s="70" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="26" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="26" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="26" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>7067</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="26" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>7068</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="26" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>7000</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="26" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="55" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>7002</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="26" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="69" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B291" s="70" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C291" s="70" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="26" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="55" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="55" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="26" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="26" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>7069</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="69" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B297" s="70" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C297" s="70" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="26" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="26" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>7004</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="26" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>7005</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="26" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>7006</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="26" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>7070</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="26" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="26" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="26" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="26" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="26" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="26" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>7007</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="26" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>7008</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="26" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="26" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>7009</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="26" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>7010</v>
+      </c>
+      <c r="C312" s="8" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="26" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>7071</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="26" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>7011</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="26" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="26" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>7012</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="69" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B317" s="70" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C317" s="70" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="26" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="26" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="26" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="26" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="26" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="26" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="26" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="26" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="26" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="26" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>7072</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="26" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="26" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="26" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="26" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="26" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="26" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="26" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="26" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="69" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B336" s="70" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C336" s="70" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="26" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>7013</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="26" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="26" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="26" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>7014</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="26" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>7015</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="26" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="26" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>7016</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="26" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="69" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B345" s="70" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C345" s="70" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="26" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="26" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="26" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="26" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>3359</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="26" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>7017</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="26" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="26" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="26" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="26" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="26" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>7018</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="26" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>7019</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="69" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B357" s="70" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C357" s="70" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="26" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="26" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="26" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="26" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="26" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="26" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>7020</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="26" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="26" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="26" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="26" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="26" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="26" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="69" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B370" s="70" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C370" s="70" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="26" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>7021</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="26" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>7022</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="26" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="26" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>7023</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="26" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="26" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>7073</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="26" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>7074</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="26" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>7024</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="26" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="26" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="26" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="69" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B382" s="70" t="s">
+        <v>7025</v>
+      </c>
+      <c r="C382" s="70" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="26" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>7026</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="26" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>7075</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="69" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B385" s="70" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C385" s="70" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="26" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="26" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="69" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B388" s="70" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C388" s="70" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="26" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="26" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>7027</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="69" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B391" s="70" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C391" s="70" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="26" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="26" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="26" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>7076</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="26" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>7028</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="26" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="26" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="26" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="69" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B399" s="70" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C399" s="70" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="26" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="26" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="26" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="26" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="26" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="26" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>7029</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="26" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>7030</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="26" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>3573</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="26" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="26" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="26" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="26" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>3585</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="26" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="26" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="26" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A289" r:id="rId1" display="http://www.multitran.ru/c/m.exe?t=4552446_2_1&amp;s1=sling-back"/>
+    <hyperlink ref="A293" r:id="rId2" display="http://www.multitran.ru/c/m.exe?t=656631_2_1&amp;s1=deck%20shoes"/>
+    <hyperlink ref="A294" r:id="rId3" display="http://www.multitran.ru/c/m.exe?t=6227096_2_1&amp;s1=espadrilles"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -34420,7 +39717,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2822</v>
       </c>
@@ -34431,7 +39728,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>2825</v>
       </c>
@@ -34453,7 +39750,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>2831</v>
       </c>
@@ -34464,7 +39761,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>2834</v>
       </c>
@@ -34475,7 +39772,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>2837</v>
       </c>
@@ -34486,7 +39783,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2840</v>
       </c>
@@ -34497,7 +39794,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>2843</v>
       </c>
@@ -34508,7 +39805,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2846</v>
       </c>
@@ -34519,7 +39816,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>2849</v>
       </c>
@@ -34530,7 +39827,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>2852</v>
       </c>
@@ -34541,7 +39838,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>2855</v>
       </c>
@@ -34563,7 +39860,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2861</v>
       </c>
@@ -34574,7 +39871,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>2864</v>
       </c>
@@ -34596,7 +39893,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>2870</v>
       </c>
@@ -34770,389 +40067,6 @@
       </c>
       <c r="C33" s="8" t="s">
         <v>2916</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>2918</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>2920</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>2919</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2923</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2926</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>2927</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2929</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>2928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>2930</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2932</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>2935</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>2934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>2936</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2938</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>2937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>2939</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2941</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>2942</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>2944</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>2943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>2945</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>2947</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>2948</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>2950</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>2951</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>2953</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>2954</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>2956</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>2957</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>2959</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>2962</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>2961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>2963</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>2966</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>2968</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>2969</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>2971</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>2970</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
-        <v>2972</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>2974</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>2973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="143.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>2975</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>2977</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>2976</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>2978</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>2980</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>2981</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>2983</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>2984</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>2986</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>2989</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>2988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>2992</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>2993</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>2995</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>2994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>2996</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>2999</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>3001</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>3002</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>3004</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>3005</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="237" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>3007</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>3009</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>3010</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>3012</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>3011</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>2948</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>2950</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>2949</v>
       </c>
     </row>
   </sheetData>
@@ -35908,6 +40822,389 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView topLeftCell="A208" workbookViewId="0">
@@ -38395,7 +43692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
@@ -38410,7 +43707,7 @@
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>3675</v>
       </c>
@@ -38421,7 +43718,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>3678</v>
       </c>
@@ -38443,7 +43740,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>3683</v>
       </c>
@@ -38454,7 +43751,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>3685</v>
       </c>
@@ -38476,7 +43773,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1072</v>
       </c>
@@ -38487,7 +43784,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>3692</v>
       </c>
@@ -38498,7 +43795,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3695</v>
       </c>
@@ -38520,7 +43817,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>3699</v>
       </c>
@@ -38531,7 +43828,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>3678</v>
       </c>
@@ -38553,7 +43850,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>3704</v>
       </c>
@@ -38564,7 +43861,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>3707</v>
       </c>
@@ -38586,7 +43883,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>3713</v>
       </c>
@@ -38619,7 +43916,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>3720</v>
       </c>
@@ -38641,7 +43938,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>3725</v>
       </c>
@@ -38652,7 +43949,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>3728</v>
       </c>
@@ -38663,7 +43960,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>3731</v>
       </c>
@@ -38674,7 +43971,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>3734</v>
       </c>
@@ -38685,7 +43982,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>3737</v>
       </c>
@@ -38696,7 +43993,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>3699</v>
       </c>
@@ -38729,7 +44026,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>3746</v>
       </c>
@@ -38751,7 +44048,7 @@
         <v>3716</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>3749</v>
       </c>
@@ -38762,7 +44059,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>3752</v>
       </c>
@@ -38773,7 +44070,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>3755</v>
       </c>
@@ -38784,7 +44081,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>3758</v>
       </c>
@@ -38806,7 +44103,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>3764</v>
       </c>
@@ -38817,7 +44114,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>3767</v>
       </c>
@@ -38828,7 +44125,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>3731</v>
       </c>
@@ -38839,7 +44136,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>968</v>
       </c>
@@ -38850,7 +44147,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>3772</v>
       </c>
@@ -38861,7 +44158,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>3775</v>
       </c>
@@ -38872,7 +44169,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>3778</v>
       </c>
@@ -38883,7 +44180,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>3781</v>
       </c>
@@ -38894,7 +44191,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>3784</v>
       </c>
@@ -38905,7 +44202,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>3787</v>
       </c>
@@ -38916,7 +44213,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>3789</v>
       </c>
@@ -38927,7 +44224,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>3792</v>
       </c>
@@ -38938,7 +44235,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>3795</v>
       </c>
@@ -38949,7 +44246,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>3797</v>
       </c>
@@ -38971,7 +44268,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>3802</v>
       </c>
@@ -38993,7 +44290,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>3808</v>
       </c>
@@ -39004,7 +44301,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>3811</v>
       </c>
@@ -39015,7 +44312,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>3814</v>
       </c>
@@ -39026,7 +44323,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>3817</v>
       </c>
@@ -39048,7 +44345,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>3245</v>
       </c>
@@ -39059,7 +44356,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>3824</v>
       </c>
@@ -39070,7 +44367,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>3827</v>
       </c>
@@ -39092,7 +44389,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>3832</v>
       </c>
@@ -39114,7 +44411,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>3837</v>
       </c>
@@ -39136,7 +44433,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>3842</v>
       </c>
@@ -39147,7 +44444,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>3845</v>
       </c>
@@ -39158,7 +44455,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>3848</v>
       </c>
@@ -39169,7 +44466,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>3851</v>
       </c>
@@ -39180,7 +44477,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>3854</v>
       </c>
@@ -39191,7 +44488,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>3245</v>
       </c>
@@ -39202,7 +44499,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>3857</v>
       </c>
@@ -39213,7 +44510,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>3860</v>
       </c>
@@ -39224,7 +44521,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>3863</v>
       </c>
@@ -39246,7 +44543,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>3869</v>
       </c>
@@ -39262,7 +44559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -39645,7 +44942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -39660,7 +44957,7 @@
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>2553</v>
       </c>
@@ -39671,7 +44968,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>3971</v>
       </c>
@@ -39682,7 +44979,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>3973</v>
       </c>
@@ -39693,7 +44990,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>3975</v>
       </c>
@@ -39704,7 +45001,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>3977</v>
       </c>
@@ -39715,7 +45012,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>3980</v>
       </c>
@@ -39726,7 +45023,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>3983</v>
       </c>
@@ -39737,7 +45034,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>2565</v>
       </c>
@@ -39748,7 +45045,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3987</v>
       </c>
@@ -39770,7 +45067,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>3993</v>
       </c>
@@ -39803,7 +45100,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>4000</v>
       </c>
@@ -39812,7 +45109,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>4002</v>
       </c>
@@ -39823,7 +45120,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>4005</v>
       </c>
@@ -39834,7 +45131,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>4008</v>
       </c>
@@ -39845,7 +45142,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>4011</v>
       </c>
@@ -39878,7 +45175,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>4019</v>
       </c>
@@ -39889,7 +45186,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>4022</v>
       </c>
@@ -39900,7 +45197,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>4025</v>
       </c>
@@ -39911,7 +45208,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>4028</v>
       </c>
@@ -39922,7 +45219,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>4031</v>
       </c>
@@ -39933,7 +45230,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>4034</v>
       </c>
@@ -39944,7 +45241,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>4037</v>
       </c>
@@ -39955,7 +45252,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>4040</v>
       </c>
@@ -39966,7 +45263,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>4043</v>
       </c>
@@ -39977,7 +45274,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>4011</v>
       </c>
@@ -39988,7 +45285,7 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>4046</v>
       </c>
@@ -39999,7 +45296,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>4049</v>
       </c>
@@ -40010,7 +45307,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>4052</v>
       </c>
@@ -40021,7 +45318,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>4055</v>
       </c>
@@ -40032,7 +45329,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>4058</v>
       </c>
@@ -40065,7 +45362,7 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>4066</v>
       </c>
@@ -40081,7 +45378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
@@ -40206,7 +45503,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>4100</v>
       </c>
@@ -40305,7 +45602,7 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>4127</v>
       </c>
@@ -40327,7 +45624,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>4133</v>
       </c>
@@ -40338,7 +45635,7 @@
         <v>4134</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>4275</v>
       </c>
@@ -40371,7 +45668,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>4143</v>
       </c>
@@ -40404,7 +45701,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>4152</v>
       </c>
@@ -40415,7 +45712,7 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>4155</v>
       </c>
@@ -40547,7 +45844,7 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>4188</v>
       </c>
@@ -40580,7 +45877,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>4197</v>
       </c>
@@ -40591,7 +45888,7 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>4200</v>
       </c>
@@ -40602,7 +45899,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>4203</v>
       </c>
@@ -40635,7 +45932,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="56" t="s">
         <v>4212</v>
       </c>
@@ -40679,7 +45976,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>4221</v>
       </c>
@@ -40690,7 +45987,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>4224</v>
       </c>
@@ -40701,7 +45998,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>4227</v>
       </c>
@@ -40712,7 +46009,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>4230</v>
       </c>
@@ -40811,7 +46108,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>4257</v>
       </c>
@@ -40866,7 +46163,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>4272</v>
       </c>
@@ -40882,7 +46179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>

--- a/DictionarysForServer/Words.xlsx
+++ b/DictionarysForServer/Words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,26 @@
     <sheet name="Внешний вид" sheetId="24" r:id="rId16"/>
     <sheet name="Покупки" sheetId="25" r:id="rId17"/>
     <sheet name="1ДОМЗАДАНИЕ" sheetId="26" r:id="rId18"/>
-    <sheet name="Работа" sheetId="13" r:id="rId19"/>
-    <sheet name="В ресторане" sheetId="14" r:id="rId20"/>
-    <sheet name="Одежда 2" sheetId="15" r:id="rId21"/>
-    <sheet name="Автомобиль" sheetId="16" r:id="rId22"/>
-    <sheet name="Флот" sheetId="17" r:id="rId23"/>
-    <sheet name="Самолет" sheetId="18" r:id="rId24"/>
-    <sheet name="Аэропорт" sheetId="19" r:id="rId25"/>
-    <sheet name="Отель" sheetId="20" r:id="rId26"/>
+    <sheet name="2ДОМЗАДАН" sheetId="27" r:id="rId19"/>
+    <sheet name="Работа" sheetId="13" r:id="rId20"/>
+    <sheet name="В ресторане" sheetId="14" r:id="rId21"/>
+    <sheet name="Одежда 2" sheetId="15" r:id="rId22"/>
+    <sheet name="Автомобиль" sheetId="16" r:id="rId23"/>
+    <sheet name="Флот" sheetId="17" r:id="rId24"/>
+    <sheet name="Самолет" sheetId="18" r:id="rId25"/>
+    <sheet name="Аэропорт" sheetId="19" r:id="rId26"/>
+    <sheet name="Отель" sheetId="20" r:id="rId27"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc432175829" localSheetId="18">'2ДОМЗАДАН'!#REF!</definedName>
+    <definedName name="_Toc432175830" localSheetId="18">'2ДОМЗАДАН'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8459" uniqueCount="7078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13115" uniqueCount="7440">
   <si>
     <t>Еда</t>
   </si>
@@ -21414,12 +21419,1120 @@
   <si>
     <t>[ tu:θ / tiːθ]</t>
   </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>['fɜːnɪʧə]</t>
+  </si>
+  <si>
+    <t>Диван </t>
+  </si>
+  <si>
+    <t>Стул </t>
+  </si>
+  <si>
+    <t>['ʧeə]</t>
+  </si>
+  <si>
+    <t>Табурет </t>
+  </si>
+  <si>
+    <t>Stool</t>
+  </si>
+  <si>
+    <t>[stuːl]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол </t>
+  </si>
+  <si>
+    <t>[ ˈteɪbl ]</t>
+  </si>
+  <si>
+    <t>Письменный стол</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>[ desk ]</t>
+  </si>
+  <si>
+    <t>Журнальный столик </t>
+  </si>
+  <si>
+    <t>['kɔfɪ  'teɪbl]</t>
+  </si>
+  <si>
+    <t>Телевизор </t>
+  </si>
+  <si>
+    <t>Tv set</t>
+  </si>
+  <si>
+    <t>[ˌtiː'viː set]</t>
+  </si>
+  <si>
+    <t>Кресло </t>
+  </si>
+  <si>
+    <t>Armchair</t>
+  </si>
+  <si>
+    <t>[ˌɑːm'ʧeə]</t>
+  </si>
+  <si>
+    <t>Шкаф </t>
+  </si>
+  <si>
+    <t>Wardrobe </t>
+  </si>
+  <si>
+    <t>['wɔːdrəub]</t>
+  </si>
+  <si>
+    <t>Книжный шкаф </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bookcase </t>
+  </si>
+  <si>
+    <t>['bukkeɪs]</t>
+  </si>
+  <si>
+    <t>Шкаф для посуды </t>
+  </si>
+  <si>
+    <t>Cupboard </t>
+  </si>
+  <si>
+    <t>Кровать</t>
+  </si>
+  <si>
+    <t>[ bed ]</t>
+  </si>
+  <si>
+    <t>Двуспальная кровать </t>
+  </si>
+  <si>
+    <t>Тумбочка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedside table </t>
+  </si>
+  <si>
+    <t>['bedˌsaɪd 'teɪbl]</t>
+  </si>
+  <si>
+    <t>Обои </t>
+  </si>
+  <si>
+    <t>Wall-paper</t>
+  </si>
+  <si>
+    <t>[wɔːl 'peɪpə]</t>
+  </si>
+  <si>
+    <t>Настенный светильник</t>
+  </si>
+  <si>
+    <t>Wall lamp </t>
+  </si>
+  <si>
+    <t>[wɔːl læmp]</t>
+  </si>
+  <si>
+    <t>Торшер </t>
+  </si>
+  <si>
+    <t>Standard lamp</t>
+  </si>
+  <si>
+    <t>['stændəd læmp]</t>
+  </si>
+  <si>
+    <t>Комод </t>
+  </si>
+  <si>
+    <t>Chest of drawers </t>
+  </si>
+  <si>
+    <t>[ʧest əv drɔːrz]</t>
+  </si>
+  <si>
+    <t>Вешалка </t>
+  </si>
+  <si>
+    <t>Coat rack</t>
+  </si>
+  <si>
+    <t>[kəut ræk]</t>
+  </si>
+  <si>
+    <t>Двухъярусная кровать </t>
+  </si>
+  <si>
+    <t>Bunk bed</t>
+  </si>
+  <si>
+    <t>[ˌbʌŋk bɛd]</t>
+  </si>
+  <si>
+    <t>Туалетный столик </t>
+  </si>
+  <si>
+    <t>Dressing-table</t>
+  </si>
+  <si>
+    <t>['dresɪŋ 'teɪbl]</t>
+  </si>
+  <si>
+    <t>Стенка </t>
+  </si>
+  <si>
+    <t>Wall unit</t>
+  </si>
+  <si>
+    <t>[wɔːl 'juːnɪt]</t>
+  </si>
+  <si>
+    <t>Обивка </t>
+  </si>
+  <si>
+    <t>Upholstery</t>
+  </si>
+  <si>
+    <t>[ʌp'həulst(ə)rɪ]</t>
+  </si>
+  <si>
+    <t>Мягкая мебель </t>
+  </si>
+  <si>
+    <t>Upholstered furniture </t>
+  </si>
+  <si>
+    <t>[ ʌpˈhoʊlstəd ˈfɜːnɪtʃə(r) ]</t>
+  </si>
+  <si>
+    <t>Домашняя утварь</t>
+  </si>
+  <si>
+    <t>Household Stuff</t>
+  </si>
+  <si>
+    <t>['haushəuld stʌf]</t>
+  </si>
+  <si>
+    <t>Раковина (на кухне) </t>
+  </si>
+  <si>
+    <t>Ковёр </t>
+  </si>
+  <si>
+    <t>Духовка </t>
+  </si>
+  <si>
+    <t>Oven </t>
+  </si>
+  <si>
+    <t>Кран </t>
+  </si>
+  <si>
+    <t>Tap</t>
+  </si>
+  <si>
+    <t>[tæp]</t>
+  </si>
+  <si>
+    <t>Плита </t>
+  </si>
+  <si>
+    <t>Пылесос </t>
+  </si>
+  <si>
+    <t>Vacuum cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['vækjuːm 'kliːnə]</t>
+  </si>
+  <si>
+    <t>Стиральная машина </t>
+  </si>
+  <si>
+    <t>Washing machine </t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
+    <t>Fridge</t>
+  </si>
+  <si>
+    <t>Покрывало </t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>['kʌvə]</t>
+  </si>
+  <si>
+    <t>Занавеска </t>
+  </si>
+  <si>
+    <t>Curtain</t>
+  </si>
+  <si>
+    <t>['kɜːt(ə)n]</t>
+  </si>
+  <si>
+    <t>Столовый сервиз </t>
+  </si>
+  <si>
+    <t>Dinner set</t>
+  </si>
+  <si>
+    <t>['dɪnə set]</t>
+  </si>
+  <si>
+    <t>Чайный сервиз </t>
+  </si>
+  <si>
+    <t>Tea set </t>
+  </si>
+  <si>
+    <t>[tiː set]</t>
+  </si>
+  <si>
+    <t>Линолеум </t>
+  </si>
+  <si>
+    <t>Linoleum</t>
+  </si>
+  <si>
+    <t>[lɪ'nəulɪəm]</t>
+  </si>
+  <si>
+    <t>Коврик, циновка </t>
+  </si>
+  <si>
+    <t>Подушка </t>
+  </si>
+  <si>
+    <t>Простыня </t>
+  </si>
+  <si>
+    <t>Штора </t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>[blaɪnd]</t>
+  </si>
+  <si>
+    <t>Люстра </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandelier / lustre </t>
+  </si>
+  <si>
+    <t>[ˌʃændə'lɪə] / ['lʌstə]</t>
+  </si>
+  <si>
+    <t>Камин </t>
+  </si>
+  <si>
+    <t>Fireplace</t>
+  </si>
+  <si>
+    <t>['faɪəpleɪs]</t>
+  </si>
+  <si>
+    <t>Стерео-система </t>
+  </si>
+  <si>
+    <t>Stereo system</t>
+  </si>
+  <si>
+    <t>['sterɪəu 'sɪstəm]</t>
+  </si>
+  <si>
+    <t>Ножевые изделия, металлические столовые приборы </t>
+  </si>
+  <si>
+    <t>Cutlery</t>
+  </si>
+  <si>
+    <t>['kʌtl(ə)rɪ]</t>
+  </si>
+  <si>
+    <t>Диванная подушка </t>
+  </si>
+  <si>
+    <t>Cushion </t>
+  </si>
+  <si>
+    <t>Сушилка для посуды </t>
+  </si>
+  <si>
+    <t>Dish-drainer</t>
+  </si>
+  <si>
+    <t>['dɪʃ 'dreɪnə]</t>
+  </si>
+  <si>
+    <t>Моющиеся обои </t>
+  </si>
+  <si>
+    <t>Washing wall-paper </t>
+  </si>
+  <si>
+    <t>['wɔʃɪŋ wɔːl 'peɪpə]</t>
+  </si>
+  <si>
+    <t>Комнатное растение </t>
+  </si>
+  <si>
+    <t>Houseplant</t>
+  </si>
+  <si>
+    <t>[hausplɑːnt]</t>
+  </si>
+  <si>
+    <t>Оклеенный обоями </t>
+  </si>
+  <si>
+    <t>Papered</t>
+  </si>
+  <si>
+    <t>['peɪpəd]</t>
+  </si>
+  <si>
+    <t>Дверная ручка </t>
+  </si>
+  <si>
+    <t>Door-handle</t>
+  </si>
+  <si>
+    <t>[dɔː ‘hændl]</t>
+  </si>
+  <si>
+    <t>Наволочка </t>
+  </si>
+  <si>
+    <t>Pillow-case</t>
+  </si>
+  <si>
+    <t>Батарея центрального отопления </t>
+  </si>
+  <si>
+    <t>Radiator</t>
+  </si>
+  <si>
+    <t>['reɪdɪeɪtə]</t>
+  </si>
+  <si>
+    <t>Швейная машина </t>
+  </si>
+  <si>
+    <t>Sewing-machine</t>
+  </si>
+  <si>
+    <t>[səuɪŋmə'ʃiːn]</t>
+  </si>
+  <si>
+    <t>Дверной глазок </t>
+  </si>
+  <si>
+    <t>Spyhole</t>
+  </si>
+  <si>
+    <t>['spaɪhəul]</t>
+  </si>
+  <si>
+    <t>Фарфоровая и фаянсовая посуда </t>
+  </si>
+  <si>
+    <t>Crockery</t>
+  </si>
+  <si>
+    <t>['krɔk(ə)rɪ]</t>
+  </si>
+  <si>
+    <t>Фарфор </t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>['ʧaɪnə]</t>
+  </si>
+  <si>
+    <t>Приспособление, устройство, прибор </t>
+  </si>
+  <si>
+    <t>Appliance</t>
+  </si>
+  <si>
+    <t>[ə'plaɪən(t)s]</t>
+  </si>
+  <si>
+    <t>Овощерезка </t>
+  </si>
+  <si>
+    <t>Vegetable cutter </t>
+  </si>
+  <si>
+    <t>['veʤ(ə)təbl 'kʌtə]</t>
+  </si>
+  <si>
+    <t>Вафельница </t>
+  </si>
+  <si>
+    <t>Waffle-maker </t>
+  </si>
+  <si>
+    <t>['wɔfl 'meɪkə]</t>
+  </si>
+  <si>
+    <t>Центральное отопление </t>
+  </si>
+  <si>
+    <t>Central heating</t>
+  </si>
+  <si>
+    <t>['sentr(ə)l 'hiːtɪŋ]</t>
+  </si>
+  <si>
+    <t>Современные удобства </t>
+  </si>
+  <si>
+    <t>Modern conveniences</t>
+  </si>
+  <si>
+    <t>['mɔd(ə)n kən'viːnɪən(t)siz]</t>
+  </si>
+  <si>
+    <t>Мусоропровод </t>
+  </si>
+  <si>
+    <t>Refuse-chute </t>
+  </si>
+  <si>
+    <t>[rɪ'fjuːz ʃuːt]</t>
+  </si>
+  <si>
+    <t>Вытяжка </t>
+  </si>
+  <si>
+    <t>Cooker hood</t>
+  </si>
+  <si>
+    <t>['kukə hud]</t>
+  </si>
+  <si>
+    <t>Части зданий</t>
+  </si>
+  <si>
+    <t>Parts of Buildings</t>
+  </si>
+  <si>
+    <t>[pa:ts əv 'bɪldɪŋz]</t>
+  </si>
+  <si>
+    <t>Лифт </t>
+  </si>
+  <si>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>[lɪft]</t>
+  </si>
+  <si>
+    <t>Потолок </t>
+  </si>
+  <si>
+    <t>Ceiling </t>
+  </si>
+  <si>
+    <t>['siːlɪŋ]</t>
+  </si>
+  <si>
+    <t>Пол, этаж</t>
+  </si>
+  <si>
+    <t>[ flɔː(r) ]</t>
+  </si>
+  <si>
+    <t>Стена</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>[ wɔːl ]</t>
+  </si>
+  <si>
+    <t>Угол</t>
+  </si>
+  <si>
+    <t>Corner</t>
+  </si>
+  <si>
+    <t>[ ˈkɔːnə(r) ]</t>
+  </si>
+  <si>
+    <t>Крыша</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>[ ruːf ]</t>
+  </si>
+  <si>
+    <t>Вход </t>
+  </si>
+  <si>
+    <t>[ˈɛntr(ə)ns]</t>
+  </si>
+  <si>
+    <t>Выход</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>[ ˈeksɪt ]</t>
+  </si>
+  <si>
+    <t>Коридор </t>
+  </si>
+  <si>
+    <t>Corridor</t>
+  </si>
+  <si>
+    <t>['kɔrɪdɔː]</t>
+  </si>
+  <si>
+    <t>Ванная комната </t>
+  </si>
+  <si>
+    <t>['bɑːθruːm]</t>
+  </si>
+  <si>
+    <t>Прихожая </t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>[hɔːl]</t>
+  </si>
+  <si>
+    <t>Столовая </t>
+  </si>
+  <si>
+    <t>Dining room</t>
+  </si>
+  <si>
+    <t>[daɪnɪŋ ruːm]</t>
+  </si>
+  <si>
+    <t>Туалет </t>
+  </si>
+  <si>
+    <t>Toilet </t>
+  </si>
+  <si>
+    <t>Балкон </t>
+  </si>
+  <si>
+    <t>Гостиная</t>
+  </si>
+  <si>
+    <t>Living room / lounge / sitting room / drawing room</t>
+  </si>
+  <si>
+    <t>[ˈlɪvɪŋ ruːm], [launʤ] / ['sɪtɪŋ ruːm] / ['drɔːɪŋ ruːm]</t>
+  </si>
+  <si>
+    <t>Спальня </t>
+  </si>
+  <si>
+    <t>Кухня </t>
+  </si>
+  <si>
+    <t>Гостевая комната</t>
+  </si>
+  <si>
+    <t>Guest room</t>
+  </si>
+  <si>
+    <t>[gest ru:m]</t>
+  </si>
+  <si>
+    <t>Крыльцо, подход</t>
+  </si>
+  <si>
+    <t>Porch</t>
+  </si>
+  <si>
+    <t>[pɔːʧ]</t>
+  </si>
+  <si>
+    <t>Лестничный пролёт </t>
+  </si>
+  <si>
+    <t>Flight of stairs</t>
+  </si>
+  <si>
+    <t>[flaɪt əv steəz]</t>
+  </si>
+  <si>
+    <t>Забор </t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>fɛns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Изгородь </t>
+  </si>
+  <si>
+    <t>Hedge</t>
+  </si>
+  <si>
+    <t>[heʤ]</t>
+  </si>
+  <si>
+    <t>Кладовая </t>
+  </si>
+  <si>
+    <t>Storeroom</t>
+  </si>
+  <si>
+    <t>['stɔːrum]</t>
+  </si>
+  <si>
+    <t>Подвал, фундамент </t>
+  </si>
+  <si>
+    <t>Basement</t>
+  </si>
+  <si>
+    <t>['beɪsmənt]</t>
+  </si>
+  <si>
+    <t>Двор</t>
+  </si>
+  <si>
+    <t>Yard </t>
+  </si>
+  <si>
+    <t>[jɑːd]</t>
+  </si>
+  <si>
+    <t>Порог </t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>['θreʃ(h)əuld]</t>
+  </si>
+  <si>
+    <t>Подоконник </t>
+  </si>
+  <si>
+    <t>Window-sill </t>
+  </si>
+  <si>
+    <t>['wɪndəu-sɪl]</t>
+  </si>
+  <si>
+    <t>Типы зданий</t>
+  </si>
+  <si>
+    <t>Types of Buildings</t>
+  </si>
+  <si>
+    <t>[taɪps əv 'bɪldɪŋz]</t>
+  </si>
+  <si>
+    <t>Гараж </t>
+  </si>
+  <si>
+    <t>Коттедж, домик </t>
+  </si>
+  <si>
+    <t>Cottage</t>
+  </si>
+  <si>
+    <t>['kɔtɪʤ]</t>
+  </si>
+  <si>
+    <t>Дворец</t>
+  </si>
+  <si>
+    <t>Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['pælɪs] </t>
+  </si>
+  <si>
+    <t>Особняк, большой дом </t>
+  </si>
+  <si>
+    <t>Mansion</t>
+  </si>
+  <si>
+    <t>['mæn(t)ʃ(ə)n]</t>
+  </si>
+  <si>
+    <t>Студенческое общежитие</t>
+  </si>
+  <si>
+    <t>Dormitory</t>
+  </si>
+  <si>
+    <t>['dɔːmɪt(ə)rɪ]</t>
+  </si>
+  <si>
+    <t>Многоквартирный дом </t>
+  </si>
+  <si>
+    <t>Block of flats</t>
+  </si>
+  <si>
+    <t>[blɔk əv flæts]</t>
+  </si>
+  <si>
+    <t>Одно/двух/... – комнатная квартира </t>
+  </si>
+  <si>
+    <t>One/two/...-room flat</t>
+  </si>
+  <si>
+    <t>[. -ruːm flæt]</t>
+  </si>
+  <si>
+    <t>Квартира </t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>[ə'pɑːtmənt]</t>
+  </si>
+  <si>
+    <t>Загородный дом </t>
+  </si>
+  <si>
+    <t>Country-house</t>
+  </si>
+  <si>
+    <t>[ˌkʌntrɪ 'haus]</t>
+  </si>
+  <si>
+    <t>Одно/двух/...этажныйдом </t>
+  </si>
+  <si>
+    <t>One/two/...-storeyed house</t>
+  </si>
+  <si>
+    <t>[...-'stɔːrɪd haus]</t>
+  </si>
+  <si>
+    <t>Недвижимое имущество</t>
+  </si>
+  <si>
+    <t>Real estate</t>
+  </si>
+  <si>
+    <t>[ʹrıəl ı͵steıt]</t>
+  </si>
+  <si>
+    <t>Один из двух домов под общей крышей </t>
+  </si>
+  <si>
+    <t>Semi-detached house </t>
+  </si>
+  <si>
+    <t>[ˌsemɪ dɪ'tæʧt haus]</t>
+  </si>
+  <si>
+    <t>Небоскрёб </t>
+  </si>
+  <si>
+    <t>Sky-scraper</t>
+  </si>
+  <si>
+    <t>[skaɪ 'skreɪpə]</t>
+  </si>
+  <si>
+    <t>Въезжать, переезжать </t>
+  </si>
+  <si>
+    <t>Move in/to</t>
+  </si>
+  <si>
+    <t>[ muːv ɪn/ tə]</t>
+  </si>
+  <si>
+    <t>Передвигать мебель </t>
+  </si>
+  <si>
+    <t>Move the furniture around</t>
+  </si>
+  <si>
+    <t>[muːv ðə 'fɜːnɪʧə ə'raund]</t>
+  </si>
+  <si>
+    <t>Выходить на ... (об окнах) </t>
+  </si>
+  <si>
+    <t>Look out onto</t>
+  </si>
+  <si>
+    <t>[luk aut 'ɔntuː]</t>
+  </si>
+  <si>
+    <t>Передвигать </t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>[ʃɪft]</t>
+  </si>
+  <si>
+    <t>Подновлять, ремонтировать, реконструировать </t>
+  </si>
+  <si>
+    <t>Renovate</t>
+  </si>
+  <si>
+    <t>['renəveɪt]</t>
+  </si>
+  <si>
+    <t>Ремонт </t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>[rɪ'peə]</t>
+  </si>
+  <si>
+    <t>Снимать квартиру </t>
+  </si>
+  <si>
+    <t>Rent a flat</t>
+  </si>
+  <si>
+    <t>[rent ə flæt]</t>
+  </si>
+  <si>
+    <t>Проживать в одной комнате с кем-либо </t>
+  </si>
+  <si>
+    <t>Share a room with smb</t>
+  </si>
+  <si>
+    <t>[ʃeə ə ru:m wɪð&lt;smb&gt;]</t>
+  </si>
+  <si>
+    <t>Починить, исправить </t>
+  </si>
+  <si>
+    <t>Put things right / fix</t>
+  </si>
+  <si>
+    <t>[put θɪŋz raɪt] / [fiks]</t>
+  </si>
+  <si>
+    <t>Просторный </t>
+  </si>
+  <si>
+    <t>Spacious</t>
+  </si>
+  <si>
+    <t>['speɪʃəs]</t>
+  </si>
+  <si>
+    <t>Побелка; белить, делать побелку </t>
+  </si>
+  <si>
+    <t>Whitewash </t>
+  </si>
+  <si>
+    <t>['waɪtwɔʃ]</t>
+  </si>
+  <si>
+    <t>Новоселье </t>
+  </si>
+  <si>
+    <t>Housewarming party</t>
+  </si>
+  <si>
+    <t>['hausˌwɔːmɪŋ 'pɑːtɪ]</t>
+  </si>
+  <si>
+    <t>Места</t>
+  </si>
+  <si>
+    <t>Places</t>
+  </si>
+  <si>
+    <t>Скорая помощь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambulance </t>
+  </si>
+  <si>
+    <t>Продуктовый магазин</t>
+  </si>
+  <si>
+    <t>[ˈɡrəʊsəri stɔː ]</t>
+  </si>
+  <si>
+    <t>Ticket office</t>
+  </si>
+  <si>
+    <t>Стадион</t>
+  </si>
+  <si>
+    <t>Stadium</t>
+  </si>
+  <si>
+    <t>Вокзал</t>
+  </si>
+  <si>
+    <t>Собор</t>
+  </si>
+  <si>
+    <t>Cathedral</t>
+  </si>
+  <si>
+    <t>Зоопарк</t>
+  </si>
+  <si>
+    <t>Zoo</t>
+  </si>
+  <si>
+    <t>Банкомат</t>
+  </si>
+  <si>
+    <t>Пожарная часть</t>
+  </si>
+  <si>
+    <t>Fire station</t>
+  </si>
+  <si>
+    <t>Заправка</t>
+  </si>
+  <si>
+    <t>Gas station</t>
+  </si>
+  <si>
+    <t>Парк аттракционов</t>
+  </si>
+  <si>
+    <t>Amusement park</t>
+  </si>
+  <si>
+    <t>[əˈmjuːzmənt pɑːk ]</t>
+  </si>
+  <si>
+    <t>Каток</t>
+  </si>
+  <si>
+    <t>Skating rink</t>
+  </si>
+  <si>
+    <t>[ˈskeɪtɪŋ rɪŋk ]</t>
+  </si>
+  <si>
+    <t>Тюрьма</t>
+  </si>
+  <si>
+    <t>Prison = jail</t>
+  </si>
+  <si>
+    <t>Замок</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
+  <si>
+    <t>Крепость</t>
+  </si>
+  <si>
+    <t>Fortress</t>
+  </si>
+  <si>
+    <t>Башня</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>[ kʌm ‘bæk / rɪ’tɜ:n ]</t>
+  </si>
+  <si>
+    <t>[ˌʃændə'lɪə / 'lʌstə]</t>
+  </si>
+  <si>
+    <t>[ˈlɪvɪŋ ruːm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living room </t>
+  </si>
+  <si>
+    <t>[put θɪŋz raɪt / fiks]</t>
+  </si>
+  <si>
+    <t>[ˈprɪzn̩ = ʤeɪl]</t>
+  </si>
+  <si>
+    <t>['kɔnsət = ɡɪɡ ]</t>
+  </si>
+  <si>
+    <t>[ədˈmɪʃn̩ fiː  / ədˈmɪʃn̩ tʃɑːdʒ ]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21555,6 +22668,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="14">
@@ -21774,7 +22894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -21962,9 +23082,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -21999,6 +23116,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22684,10 +23822,10 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="79" t="s">
         <v>97</v>
       </c>
     </row>
@@ -22695,8 +23833,8 @@
       <c r="A35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -35115,7 +36253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C414"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
@@ -36524,13 +37662,13 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="71" t="s">
+      <c r="A128" s="70" t="s">
         <v>6892</v>
       </c>
-      <c r="B128" s="73" t="s">
+      <c r="B128" s="72" t="s">
         <v>6894</v>
       </c>
-      <c r="C128" s="72" t="s">
+      <c r="C128" s="71" t="s">
         <v>6893</v>
       </c>
     </row>
@@ -36538,7 +37676,7 @@
       <c r="A129" s="49" t="s">
         <v>6210</v>
       </c>
-      <c r="B129" s="74" t="s">
+      <c r="B129" s="73" t="s">
         <v>6895</v>
       </c>
       <c r="C129" s="50" t="s">
@@ -36549,7 +37687,7 @@
       <c r="A130" s="49" t="s">
         <v>6896</v>
       </c>
-      <c r="B130" s="74" t="s">
+      <c r="B130" s="73" t="s">
         <v>6898</v>
       </c>
       <c r="C130" s="50" t="s">
@@ -36560,7 +37698,7 @@
       <c r="A131" s="49" t="s">
         <v>6477</v>
       </c>
-      <c r="B131" s="74" t="s">
+      <c r="B131" s="73" t="s">
         <v>6899</v>
       </c>
       <c r="C131" s="50" t="s">
@@ -36571,7 +37709,7 @@
       <c r="A132" s="49" t="s">
         <v>6900</v>
       </c>
-      <c r="B132" s="74" t="s">
+      <c r="B132" s="73" t="s">
         <v>7077</v>
       </c>
       <c r="C132" s="50" t="s">
@@ -36582,7 +37720,7 @@
       <c r="A133" s="49" t="s">
         <v>6297</v>
       </c>
-      <c r="B133" s="74" t="s">
+      <c r="B133" s="73" t="s">
         <v>6902</v>
       </c>
       <c r="C133" s="50" t="s">
@@ -36593,7 +37731,7 @@
       <c r="A134" s="49" t="s">
         <v>6498</v>
       </c>
-      <c r="B134" s="74" t="s">
+      <c r="B134" s="73" t="s">
         <v>6903</v>
       </c>
       <c r="C134" s="50" t="s">
@@ -36604,7 +37742,7 @@
       <c r="A135" s="49" t="s">
         <v>6904</v>
       </c>
-      <c r="B135" s="74" t="s">
+      <c r="B135" s="73" t="s">
         <v>6906</v>
       </c>
       <c r="C135" s="50" t="s">
@@ -36615,7 +37753,7 @@
       <c r="A136" s="49" t="s">
         <v>6907</v>
       </c>
-      <c r="B136" s="74" t="s">
+      <c r="B136" s="73" t="s">
         <v>6909</v>
       </c>
       <c r="C136" s="50" t="s">
@@ -36626,7 +37764,7 @@
       <c r="A137" s="49" t="s">
         <v>6910</v>
       </c>
-      <c r="B137" s="74" t="s">
+      <c r="B137" s="73" t="s">
         <v>6912</v>
       </c>
       <c r="C137" s="50" t="s">
@@ -36634,13 +37772,13 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="71" t="s">
+      <c r="A138" s="70" t="s">
         <v>6913</v>
       </c>
-      <c r="B138" s="73" t="s">
+      <c r="B138" s="72" t="s">
         <v>7043</v>
       </c>
-      <c r="C138" s="72" t="s">
+      <c r="C138" s="71" t="s">
         <v>7044</v>
       </c>
     </row>
@@ -36648,7 +37786,7 @@
       <c r="A139" s="49" t="s">
         <v>6914</v>
       </c>
-      <c r="B139" s="74" t="s">
+      <c r="B139" s="73" t="s">
         <v>6916</v>
       </c>
       <c r="C139" s="50" t="s">
@@ -36659,7 +37797,7 @@
       <c r="A140" s="49" t="s">
         <v>6917</v>
       </c>
-      <c r="B140" s="74" t="s">
+      <c r="B140" s="73" t="s">
         <v>6919</v>
       </c>
       <c r="C140" s="50" t="s">
@@ -36670,7 +37808,7 @@
       <c r="A141" s="49" t="s">
         <v>6920</v>
       </c>
-      <c r="B141" s="74" t="s">
+      <c r="B141" s="73" t="s">
         <v>6922</v>
       </c>
       <c r="C141" s="50" t="s">
@@ -36681,7 +37819,7 @@
       <c r="A142" s="49" t="s">
         <v>6923</v>
       </c>
-      <c r="B142" s="74" t="s">
+      <c r="B142" s="73" t="s">
         <v>6924</v>
       </c>
       <c r="C142" s="50" t="s">
@@ -36692,7 +37830,7 @@
       <c r="A143" s="49" t="s">
         <v>6925</v>
       </c>
-      <c r="B143" s="74" t="s">
+      <c r="B143" s="73" t="s">
         <v>6927</v>
       </c>
       <c r="C143" s="50" t="s">
@@ -36703,7 +37841,7 @@
       <c r="A144" s="49" t="s">
         <v>6928</v>
       </c>
-      <c r="B144" s="74" t="s">
+      <c r="B144" s="73" t="s">
         <v>6930</v>
       </c>
       <c r="C144" s="50" t="s">
@@ -36714,7 +37852,7 @@
       <c r="A145" s="49" t="s">
         <v>6931</v>
       </c>
-      <c r="B145" s="74" t="s">
+      <c r="B145" s="73" t="s">
         <v>7045</v>
       </c>
       <c r="C145" s="50" t="s">
@@ -36722,13 +37860,13 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="71" t="s">
+      <c r="A146" s="70" t="s">
         <v>6933</v>
       </c>
-      <c r="B146" s="73" t="s">
+      <c r="B146" s="72" t="s">
         <v>6935</v>
       </c>
-      <c r="C146" s="72" t="s">
+      <c r="C146" s="71" t="s">
         <v>6934</v>
       </c>
     </row>
@@ -36736,7 +37874,7 @@
       <c r="A147" s="49" t="s">
         <v>6936</v>
       </c>
-      <c r="B147" s="74" t="s">
+      <c r="B147" s="73" t="s">
         <v>6938</v>
       </c>
       <c r="C147" s="50" t="s">
@@ -36747,7 +37885,7 @@
       <c r="A148" s="49" t="s">
         <v>6939</v>
       </c>
-      <c r="B148" s="74" t="s">
+      <c r="B148" s="73" t="s">
         <v>6941</v>
       </c>
       <c r="C148" s="50" t="s">
@@ -36758,7 +37896,7 @@
       <c r="A149" s="49" t="s">
         <v>6942</v>
       </c>
-      <c r="B149" s="75" t="s">
+      <c r="B149" s="74" t="s">
         <v>6944</v>
       </c>
       <c r="C149" s="50" t="s">
@@ -36769,7 +37907,7 @@
       <c r="A150" s="49" t="s">
         <v>6945</v>
       </c>
-      <c r="B150" s="74" t="s">
+      <c r="B150" s="73" t="s">
         <v>6947</v>
       </c>
       <c r="C150" s="50" t="s">
@@ -36780,7 +37918,7 @@
       <c r="A151" s="49" t="s">
         <v>6948</v>
       </c>
-      <c r="B151" s="74" t="s">
+      <c r="B151" s="73" t="s">
         <v>6950</v>
       </c>
       <c r="C151" s="50" t="s">
@@ -36791,7 +37929,7 @@
       <c r="A152" s="49" t="s">
         <v>6951</v>
       </c>
-      <c r="B152" s="74" t="s">
+      <c r="B152" s="73" t="s">
         <v>6953</v>
       </c>
       <c r="C152" s="50" t="s">
@@ -36802,7 +37940,7 @@
       <c r="A153" s="49" t="s">
         <v>6954</v>
       </c>
-      <c r="B153" s="74" t="s">
+      <c r="B153" s="73" t="s">
         <v>6956</v>
       </c>
       <c r="C153" s="50" t="s">
@@ -36810,13 +37948,13 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="76" t="s">
+      <c r="A154" s="75" t="s">
         <v>6933</v>
       </c>
-      <c r="B154" s="77" t="s">
+      <c r="B154" s="76" t="s">
         <v>6935</v>
       </c>
-      <c r="C154" s="77" t="s">
+      <c r="C154" s="76" t="s">
         <v>6934</v>
       </c>
     </row>
@@ -36898,13 +38036,13 @@
       </c>
     </row>
     <row r="162" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="69" t="s">
+      <c r="A162" s="68" t="s">
         <v>6210</v>
       </c>
-      <c r="B162" s="70" t="s">
+      <c r="B162" s="69" t="s">
         <v>2666</v>
       </c>
-      <c r="C162" s="70" t="s">
+      <c r="C162" s="69" t="s">
         <v>6211</v>
       </c>
     </row>
@@ -37129,13 +38267,13 @@
       </c>
     </row>
     <row r="183" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="69" t="s">
+      <c r="A183" s="68" t="s">
         <v>6297</v>
       </c>
-      <c r="B183" s="70" t="s">
+      <c r="B183" s="69" t="s">
         <v>6299</v>
       </c>
-      <c r="C183" s="70" t="s">
+      <c r="C183" s="69" t="s">
         <v>6298</v>
       </c>
     </row>
@@ -37338,24 +38476,24 @@
       </c>
     </row>
     <row r="202" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="69" t="s">
+      <c r="A202" s="68" t="s">
         <v>6364</v>
       </c>
-      <c r="B202" s="70" t="s">
+      <c r="B202" s="69" t="s">
         <v>6366</v>
       </c>
-      <c r="C202" s="70" t="s">
+      <c r="C202" s="69" t="s">
         <v>6365</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="69" t="s">
+      <c r="A203" s="68" t="s">
         <v>6403</v>
       </c>
-      <c r="B203" s="70" t="s">
+      <c r="B203" s="69" t="s">
         <v>6405</v>
       </c>
-      <c r="C203" s="70" t="s">
+      <c r="C203" s="69" t="s">
         <v>6404</v>
       </c>
     </row>
@@ -37470,13 +38608,13 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="69" t="s">
+      <c r="A214" s="68" t="s">
         <v>6477</v>
       </c>
-      <c r="B214" s="70" t="s">
+      <c r="B214" s="69" t="s">
         <v>6479</v>
       </c>
-      <c r="C214" s="70" t="s">
+      <c r="C214" s="69" t="s">
         <v>6478</v>
       </c>
     </row>
@@ -37536,13 +38674,13 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="69" t="s">
+      <c r="A220" s="68" t="s">
         <v>6498</v>
       </c>
-      <c r="B220" s="70" t="s">
+      <c r="B220" s="69" t="s">
         <v>6500</v>
       </c>
-      <c r="C220" s="70" t="s">
+      <c r="C220" s="69" t="s">
         <v>6499</v>
       </c>
     </row>
@@ -37635,13 +38773,13 @@
       </c>
     </row>
     <row r="229" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="69" t="s">
+      <c r="A229" s="68" t="s">
         <v>6525</v>
       </c>
-      <c r="B229" s="70" t="s">
+      <c r="B229" s="69" t="s">
         <v>6527</v>
       </c>
-      <c r="C229" s="70" t="s">
+      <c r="C229" s="69" t="s">
         <v>6526</v>
       </c>
     </row>
@@ -37701,13 +38839,13 @@
       </c>
     </row>
     <row r="235" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="69" t="s">
+      <c r="A235" s="68" t="s">
         <v>6543</v>
       </c>
-      <c r="B235" s="70" t="s">
+      <c r="B235" s="69" t="s">
         <v>6545</v>
       </c>
-      <c r="C235" s="70" t="s">
+      <c r="C235" s="69" t="s">
         <v>6544</v>
       </c>
     </row>
@@ -37789,13 +38927,13 @@
       </c>
     </row>
     <row r="243" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="78" t="s">
+      <c r="A243" s="77" t="s">
         <v>3013</v>
       </c>
-      <c r="B243" s="79" t="s">
+      <c r="B243" s="78" t="s">
         <v>3015</v>
       </c>
-      <c r="C243" s="79" t="s">
+      <c r="C243" s="78" t="s">
         <v>3014</v>
       </c>
     </row>
@@ -37888,13 +39026,13 @@
       </c>
     </row>
     <row r="252" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="69" t="s">
+      <c r="A252" s="68" t="s">
         <v>6995</v>
       </c>
-      <c r="B252" s="70" t="s">
+      <c r="B252" s="69" t="s">
         <v>3048</v>
       </c>
-      <c r="C252" s="70" t="s">
+      <c r="C252" s="69" t="s">
         <v>6996</v>
       </c>
     </row>
@@ -37954,13 +39092,13 @@
       </c>
     </row>
     <row r="258" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="69" t="s">
+      <c r="A258" s="68" t="s">
         <v>3070</v>
       </c>
-      <c r="B258" s="70" t="s">
+      <c r="B258" s="69" t="s">
         <v>3072</v>
       </c>
-      <c r="C258" s="70" t="s">
+      <c r="C258" s="69" t="s">
         <v>3071</v>
       </c>
     </row>
@@ -38086,13 +39224,13 @@
       </c>
     </row>
     <row r="270" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="69" t="s">
+      <c r="A270" s="68" t="s">
         <v>3107</v>
       </c>
-      <c r="B270" s="70" t="s">
+      <c r="B270" s="69" t="s">
         <v>3109</v>
       </c>
-      <c r="C270" s="70" t="s">
+      <c r="C270" s="69" t="s">
         <v>3108</v>
       </c>
     </row>
@@ -38218,13 +39356,13 @@
       </c>
     </row>
     <row r="282" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="69" t="s">
+      <c r="A282" s="68" t="s">
         <v>3140</v>
       </c>
-      <c r="B282" s="70" t="s">
+      <c r="B282" s="69" t="s">
         <v>3142</v>
       </c>
-      <c r="C282" s="70" t="s">
+      <c r="C282" s="69" t="s">
         <v>3141</v>
       </c>
     </row>
@@ -38317,13 +39455,13 @@
       </c>
     </row>
     <row r="291" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="69" t="s">
+      <c r="A291" s="68" t="s">
         <v>3168</v>
       </c>
-      <c r="B291" s="70" t="s">
+      <c r="B291" s="69" t="s">
         <v>3170</v>
       </c>
-      <c r="C291" s="70" t="s">
+      <c r="C291" s="69" t="s">
         <v>3169</v>
       </c>
     </row>
@@ -38383,13 +39521,13 @@
       </c>
     </row>
     <row r="297" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="69" t="s">
+      <c r="A297" s="68" t="s">
         <v>3196</v>
       </c>
-      <c r="B297" s="70" t="s">
+      <c r="B297" s="69" t="s">
         <v>3198</v>
       </c>
-      <c r="C297" s="70" t="s">
+      <c r="C297" s="69" t="s">
         <v>3197</v>
       </c>
     </row>
@@ -38603,13 +39741,13 @@
       </c>
     </row>
     <row r="317" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="69" t="s">
+      <c r="A317" s="68" t="s">
         <v>3262</v>
       </c>
-      <c r="B317" s="70" t="s">
+      <c r="B317" s="69" t="s">
         <v>3264</v>
       </c>
-      <c r="C317" s="70" t="s">
+      <c r="C317" s="69" t="s">
         <v>3263</v>
       </c>
     </row>
@@ -38812,13 +39950,13 @@
       </c>
     </row>
     <row r="336" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="69" t="s">
+      <c r="A336" s="68" t="s">
         <v>3318</v>
       </c>
-      <c r="B336" s="70" t="s">
+      <c r="B336" s="69" t="s">
         <v>3320</v>
       </c>
-      <c r="C336" s="70" t="s">
+      <c r="C336" s="69" t="s">
         <v>3319</v>
       </c>
     </row>
@@ -38911,13 +40049,13 @@
       </c>
     </row>
     <row r="345" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="69" t="s">
+      <c r="A345" s="68" t="s">
         <v>3345</v>
       </c>
-      <c r="B345" s="70" t="s">
+      <c r="B345" s="69" t="s">
         <v>3347</v>
       </c>
-      <c r="C345" s="70" t="s">
+      <c r="C345" s="69" t="s">
         <v>3346</v>
       </c>
     </row>
@@ -39043,13 +40181,13 @@
       </c>
     </row>
     <row r="357" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="69" t="s">
+      <c r="A357" s="68" t="s">
         <v>3381</v>
       </c>
-      <c r="B357" s="70" t="s">
+      <c r="B357" s="69" t="s">
         <v>3383</v>
       </c>
-      <c r="C357" s="70" t="s">
+      <c r="C357" s="69" t="s">
         <v>3382</v>
       </c>
     </row>
@@ -39186,13 +40324,13 @@
       </c>
     </row>
     <row r="370" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="69" t="s">
+      <c r="A370" s="68" t="s">
         <v>3420</v>
       </c>
-      <c r="B370" s="70" t="s">
+      <c r="B370" s="69" t="s">
         <v>3422</v>
       </c>
-      <c r="C370" s="70" t="s">
+      <c r="C370" s="69" t="s">
         <v>3421</v>
       </c>
     </row>
@@ -39318,13 +40456,13 @@
       </c>
     </row>
     <row r="382" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="69" t="s">
+      <c r="A382" s="68" t="s">
         <v>3454</v>
       </c>
-      <c r="B382" s="70" t="s">
+      <c r="B382" s="69" t="s">
         <v>7025</v>
       </c>
-      <c r="C382" s="70" t="s">
+      <c r="C382" s="69" t="s">
         <v>3455</v>
       </c>
     </row>
@@ -39351,13 +40489,13 @@
       </c>
     </row>
     <row r="385" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="69" t="s">
+      <c r="A385" s="68" t="s">
         <v>3471</v>
       </c>
-      <c r="B385" s="70" t="s">
+      <c r="B385" s="69" t="s">
         <v>3473</v>
       </c>
-      <c r="C385" s="70" t="s">
+      <c r="C385" s="69" t="s">
         <v>3472</v>
       </c>
     </row>
@@ -39384,13 +40522,13 @@
       </c>
     </row>
     <row r="388" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="69" t="s">
+      <c r="A388" s="68" t="s">
         <v>3483</v>
       </c>
-      <c r="B388" s="70" t="s">
+      <c r="B388" s="69" t="s">
         <v>3485</v>
       </c>
-      <c r="C388" s="70" t="s">
+      <c r="C388" s="69" t="s">
         <v>3484</v>
       </c>
     </row>
@@ -39417,13 +40555,13 @@
       </c>
     </row>
     <row r="391" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="69" t="s">
+      <c r="A391" s="68" t="s">
         <v>3497</v>
       </c>
-      <c r="B391" s="70" t="s">
+      <c r="B391" s="69" t="s">
         <v>3499</v>
       </c>
-      <c r="C391" s="70" t="s">
+      <c r="C391" s="69" t="s">
         <v>3498</v>
       </c>
     </row>
@@ -39505,13 +40643,13 @@
       </c>
     </row>
     <row r="399" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="69" t="s">
+      <c r="A399" s="68" t="s">
         <v>3520</v>
       </c>
-      <c r="B399" s="70" t="s">
+      <c r="B399" s="69" t="s">
         <v>3522</v>
       </c>
-      <c r="C399" s="70" t="s">
+      <c r="C399" s="69" t="s">
         <v>3521</v>
       </c>
     </row>
@@ -39693,384 +40831,4479 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B382" sqref="B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>2821</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>2820</v>
+      <c r="A1" s="58" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>2822</v>
+      <c r="A2" s="67" t="s">
+        <v>1297</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2824</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>2823</v>
+        <v>1298</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>2825</v>
+      <c r="A3" s="67" t="s">
+        <v>1300</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2827</v>
+        <v>1301</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>2826</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>2828</v>
+      <c r="A4" s="67" t="s">
+        <v>1303</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2830</v>
+        <v>1304</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>2829</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>2831</v>
+      <c r="A5" s="67" t="s">
+        <v>1306</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2833</v>
+        <v>1307</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>2834</v>
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="67" t="s">
+        <v>1309</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2836</v>
+        <v>1310</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>2837</v>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
+        <v>1312</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2839</v>
+        <v>1313</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>2838</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>2840</v>
+      <c r="A8" s="67" t="s">
+        <v>1315</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>2842</v>
+        <v>1316</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>2841</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>2843</v>
+      <c r="A9" s="67" t="s">
+        <v>1318</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>2845</v>
+        <v>1319</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>2844</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>2846</v>
+      <c r="A10" s="67" t="s">
+        <v>1321</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2848</v>
+        <v>1322</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2847</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>2849</v>
+      <c r="A11" s="67" t="s">
+        <v>1324</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>2851</v>
+        <v>1325</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>2850</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>2852</v>
+      <c r="A12" s="67" t="s">
+        <v>1327</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2854</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>2853</v>
+        <v>1328</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>2855</v>
+      <c r="A13" s="67" t="s">
+        <v>1330</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>2857</v>
+        <v>1331</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>2856</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>2858</v>
+      <c r="A14" s="67" t="s">
+        <v>1333</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2860</v>
+        <v>1334</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>2859</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>2861</v>
+      <c r="A15" s="67" t="s">
+        <v>1336</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>2863</v>
+        <v>1337</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>2862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>2864</v>
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
+        <v>1339</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2866</v>
+        <v>1340</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>2865</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>2867</v>
+      <c r="A17" s="67" t="s">
+        <v>1342</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>2869</v>
+        <v>1343</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>2868</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>2870</v>
+      <c r="A18" s="67" t="s">
+        <v>1345</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>2872</v>
+        <v>1346</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2871</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>2873</v>
+      <c r="A19" s="67" t="s">
+        <v>1348</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>2875</v>
+        <v>1349</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2874</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>2878</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>2877</v>
+      <c r="A20" s="67" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>2879</v>
+      <c r="A21" s="67" t="s">
+        <v>1354</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>2881</v>
+        <v>1355</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2880</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>2882</v>
+      <c r="A22" s="67" t="s">
+        <v>1357</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>2884</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>2883</v>
+        <v>1358</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>2885</v>
+      <c r="A23" s="67" t="s">
+        <v>1360</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>2887</v>
+        <v>1361</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2886</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>2888</v>
+      <c r="A24" s="67" t="s">
+        <v>1363</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>2890</v>
+        <v>1364</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2889</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>2891</v>
+      <c r="A25" s="67" t="s">
+        <v>1366</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>2893</v>
+        <v>7432</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>2892</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>2894</v>
+      <c r="A26" s="67" t="s">
+        <v>1369</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>2896</v>
+        <v>1370</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2895</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>2897</v>
+      <c r="A27" s="67" t="s">
+        <v>1372</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>2899</v>
+        <v>1373</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2898</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>2900</v>
+      <c r="A28" s="67" t="s">
+        <v>1375</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>2902</v>
+        <v>1376</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>2901</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>2903</v>
+      <c r="A29" s="67" t="s">
+        <v>1378</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>2905</v>
+        <v>1379</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>2904</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>2906</v>
+      <c r="A30" s="67" t="s">
+        <v>1381</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>2908</v>
+        <v>1382</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>2907</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>2909</v>
+      <c r="A31" s="67" t="s">
+        <v>1384</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>2911</v>
+        <v>1385</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>2910</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>2912</v>
+      <c r="A32" s="67" t="s">
+        <v>1387</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>2914</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>2913</v>
+        <v>1388</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>2915</v>
+      <c r="A33" s="67" t="s">
+        <v>1390</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>2917</v>
+        <v>1536</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>2916</v>
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="67" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="67" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="68" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="67" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="67" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="67" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="67" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="67" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="67" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="67" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="67" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="68" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B45" s="69" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C45" s="69" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="67" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="67" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="67" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="67" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="68" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B50" s="69" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="67" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="67" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="67" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="67" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="67" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="68" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C56" s="69" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="67" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="67" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="67" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="67" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="67" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="67" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="67" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="67" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="68" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B65" s="69" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C65" s="69" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="67" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="67" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="67" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="67" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="67" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="67" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="67" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="67" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="67" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="67" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="67" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="67" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="67" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="67" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="67" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="67" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="79" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B82" s="79" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C82" s="79" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="80"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="49" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="49" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="49" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B86" s="50" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C86" s="50" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="49" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B87" s="50" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C87" s="50" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="49" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B88" s="50" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="49" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C89" s="50" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="49" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B90" s="50" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C90" s="50" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="49" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B91" s="50" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C92" s="50" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="49" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B93" s="50" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="49" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B95" s="50" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B96" s="50" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="49" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B97" s="50" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="49" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="49" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="49" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C100" s="50" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="49" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C101" s="50" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B102" s="50" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C102" s="50" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="49" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B103" s="50" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="49" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C104" s="50" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="49" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C105" s="50" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="49" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C106" s="50" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="49" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B107" s="50" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C107" s="50" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="83" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B108" s="50" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C108" s="50" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="49" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C109" s="50" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="49" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B110" s="50" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="49" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B111" s="50" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C111" s="50" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="83" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B112" s="50" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C112" s="50" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="49" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B113" s="50" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C113" s="50" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="49" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B115" s="50" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="83" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B117" s="50" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C117" s="50" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B118" s="50" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C118" s="50" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="67" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="67" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="67" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="67" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="67" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="67" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="67" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="67" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="67" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="67" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="67" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="83" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="67" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="84" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="67" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="67" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="67" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="67" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="67" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="83" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="67" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="83" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="67" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="67" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C142" s="85" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="67" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="67" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="67" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="67" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="83" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="81" t="s">
+        <v>6631</v>
+      </c>
+      <c r="B148" s="82" t="s">
+        <v>7079</v>
+      </c>
+      <c r="C148" s="82" t="s">
+        <v>7078</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="49" t="s">
+        <v>7080</v>
+      </c>
+      <c r="B149" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="C149" s="50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="49" t="s">
+        <v>7081</v>
+      </c>
+      <c r="B150" s="50" t="s">
+        <v>7082</v>
+      </c>
+      <c r="C150" s="50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="49" t="s">
+        <v>7083</v>
+      </c>
+      <c r="B151" s="50" t="s">
+        <v>7085</v>
+      </c>
+      <c r="C151" s="50" t="s">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="49" t="s">
+        <v>7086</v>
+      </c>
+      <c r="B152" s="50" t="s">
+        <v>7087</v>
+      </c>
+      <c r="C152" s="50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="49" t="s">
+        <v>7088</v>
+      </c>
+      <c r="B153" s="50" t="s">
+        <v>7090</v>
+      </c>
+      <c r="C153" s="50" t="s">
+        <v>7089</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="49" t="s">
+        <v>7091</v>
+      </c>
+      <c r="B154" s="50" t="s">
+        <v>7092</v>
+      </c>
+      <c r="C154" s="50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="49" t="s">
+        <v>7093</v>
+      </c>
+      <c r="B155" s="50" t="s">
+        <v>7095</v>
+      </c>
+      <c r="C155" s="50" t="s">
+        <v>7094</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="49" t="s">
+        <v>7096</v>
+      </c>
+      <c r="B156" s="50" t="s">
+        <v>7098</v>
+      </c>
+      <c r="C156" s="50" t="s">
+        <v>7097</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="49" t="s">
+        <v>7099</v>
+      </c>
+      <c r="B157" s="50" t="s">
+        <v>7101</v>
+      </c>
+      <c r="C157" s="50" t="s">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="49" t="s">
+        <v>7102</v>
+      </c>
+      <c r="B158" s="50" t="s">
+        <v>7104</v>
+      </c>
+      <c r="C158" s="50" t="s">
+        <v>7103</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="49" t="s">
+        <v>7105</v>
+      </c>
+      <c r="B159" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C159" s="50" t="s">
+        <v>7106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="49" t="s">
+        <v>7107</v>
+      </c>
+      <c r="B160" s="50" t="s">
+        <v>7108</v>
+      </c>
+      <c r="C160" s="50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="49" t="s">
+        <v>7109</v>
+      </c>
+      <c r="B161" s="50" t="s">
+        <v>4542</v>
+      </c>
+      <c r="C161" s="50" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="49" t="s">
+        <v>7110</v>
+      </c>
+      <c r="B162" s="50" t="s">
+        <v>7112</v>
+      </c>
+      <c r="C162" s="50" t="s">
+        <v>7111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="49" t="s">
+        <v>7113</v>
+      </c>
+      <c r="B163" s="50" t="s">
+        <v>7115</v>
+      </c>
+      <c r="C163" s="50" t="s">
+        <v>7114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="49" t="s">
+        <v>7116</v>
+      </c>
+      <c r="B164" s="50" t="s">
+        <v>7118</v>
+      </c>
+      <c r="C164" s="50" t="s">
+        <v>7117</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="49" t="s">
+        <v>7119</v>
+      </c>
+      <c r="B165" s="50" t="s">
+        <v>7121</v>
+      </c>
+      <c r="C165" s="50" t="s">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="49" t="s">
+        <v>7122</v>
+      </c>
+      <c r="B166" s="50" t="s">
+        <v>7124</v>
+      </c>
+      <c r="C166" s="50" t="s">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="49" t="s">
+        <v>7125</v>
+      </c>
+      <c r="B167" s="50" t="s">
+        <v>7127</v>
+      </c>
+      <c r="C167" s="50" t="s">
+        <v>7126</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="49" t="s">
+        <v>7128</v>
+      </c>
+      <c r="B168" s="50" t="s">
+        <v>7130</v>
+      </c>
+      <c r="C168" s="50" t="s">
+        <v>7129</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="49" t="s">
+        <v>7131</v>
+      </c>
+      <c r="B169" s="50" t="s">
+        <v>7133</v>
+      </c>
+      <c r="C169" s="50" t="s">
+        <v>7132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="49" t="s">
+        <v>7134</v>
+      </c>
+      <c r="B170" s="50" t="s">
+        <v>7136</v>
+      </c>
+      <c r="C170" s="50" t="s">
+        <v>7135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="49" t="s">
+        <v>7137</v>
+      </c>
+      <c r="B171" s="50" t="s">
+        <v>7139</v>
+      </c>
+      <c r="C171" s="50" t="s">
+        <v>7138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="49" t="s">
+        <v>7140</v>
+      </c>
+      <c r="B172" s="50" t="s">
+        <v>7142</v>
+      </c>
+      <c r="C172" s="50" t="s">
+        <v>7141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="68" t="s">
+        <v>7143</v>
+      </c>
+      <c r="B173" s="69" t="s">
+        <v>7145</v>
+      </c>
+      <c r="C173" s="69" t="s">
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="67" t="s">
+        <v>7146</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="67" t="s">
+        <v>7147</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="67" t="s">
+        <v>7148</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="67" t="s">
+        <v>7150</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>7152</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>7151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="67" t="s">
+        <v>7153</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="67" t="s">
+        <v>7154</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>7156</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>7155</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="49" t="s">
+        <v>7157</v>
+      </c>
+      <c r="B180" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="C180" s="50" t="s">
+        <v>7158</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="67" t="s">
+        <v>7159</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>7160</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="67" t="s">
+        <v>7161</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>7163</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>7162</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="67" t="s">
+        <v>7164</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>7166</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>7165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="67" t="s">
+        <v>7167</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>7169</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>7168</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="67" t="s">
+        <v>7170</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>7172</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>7171</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="67" t="s">
+        <v>7173</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>7175</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>7174</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="67" t="s">
+        <v>7176</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="67" t="s">
+        <v>7177</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="67" t="s">
+        <v>7178</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="67" t="s">
+        <v>7179</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>7181</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="67" t="s">
+        <v>7182</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>7433</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>7183</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="67" t="s">
+        <v>7185</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>7187</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="67" t="s">
+        <v>7188</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>7190</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>7189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="67" t="s">
+        <v>7161</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="67" t="s">
+        <v>7191</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>7193</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="67" t="s">
+        <v>7194</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="67" t="s">
+        <v>7196</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>7198</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="67" t="s">
+        <v>7199</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>7201</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="67" t="s">
+        <v>7202</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>7204</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="67" t="s">
+        <v>7205</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>7207</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>7206</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="67" t="s">
+        <v>7208</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>7210</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>7209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="67" t="s">
+        <v>7211</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>7212</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="67" t="s">
+        <v>7213</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>7215</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="67" t="s">
+        <v>7216</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>7218</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="67" t="s">
+        <v>7219</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>7221</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>7220</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="67" t="s">
+        <v>7222</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>7224</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="67" t="s">
+        <v>7225</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>7227</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>7226</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="67" t="s">
+        <v>7228</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>7230</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>7229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="67" t="s">
+        <v>7231</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>7233</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="67" t="s">
+        <v>7234</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>7236</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>7235</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="67" t="s">
+        <v>7237</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>7239</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>7238</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="67" t="s">
+        <v>7240</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>7242</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>7241</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="67" t="s">
+        <v>7243</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>7245</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>7244</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="67" t="s">
+        <v>7246</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>7248</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>7247</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="68" t="s">
+        <v>7249</v>
+      </c>
+      <c r="B215" s="69" t="s">
+        <v>7251</v>
+      </c>
+      <c r="C215" s="69" t="s">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="49" t="s">
+        <v>7252</v>
+      </c>
+      <c r="B216" s="50" t="s">
+        <v>7254</v>
+      </c>
+      <c r="C216" s="50" t="s">
+        <v>7253</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="49" t="s">
+        <v>7255</v>
+      </c>
+      <c r="B217" s="50" t="s">
+        <v>7257</v>
+      </c>
+      <c r="C217" s="50" t="s">
+        <v>7256</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="49" t="s">
+        <v>7258</v>
+      </c>
+      <c r="B218" s="50" t="s">
+        <v>7259</v>
+      </c>
+      <c r="C218" s="50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="49" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B219" s="50" t="s">
+        <v>7262</v>
+      </c>
+      <c r="C219" s="50" t="s">
+        <v>7261</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="49" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B220" s="50" t="s">
+        <v>7265</v>
+      </c>
+      <c r="C220" s="50" t="s">
+        <v>7264</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="49" t="s">
+        <v>7266</v>
+      </c>
+      <c r="B221" s="50" t="s">
+        <v>7268</v>
+      </c>
+      <c r="C221" s="50" t="s">
+        <v>7267</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="49" t="s">
+        <v>7269</v>
+      </c>
+      <c r="B222" s="50" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C222" s="50" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="49" t="s">
+        <v>7271</v>
+      </c>
+      <c r="B223" s="50" t="s">
+        <v>7273</v>
+      </c>
+      <c r="C223" s="50" t="s">
+        <v>7272</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="49" t="s">
+        <v>7274</v>
+      </c>
+      <c r="B224" s="50" t="s">
+        <v>7276</v>
+      </c>
+      <c r="C224" s="50" t="s">
+        <v>7275</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="49" t="s">
+        <v>7277</v>
+      </c>
+      <c r="B225" s="50" t="s">
+        <v>7278</v>
+      </c>
+      <c r="C225" s="50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="49" t="s">
+        <v>7279</v>
+      </c>
+      <c r="B226" s="50" t="s">
+        <v>7281</v>
+      </c>
+      <c r="C226" s="50" t="s">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="49" t="s">
+        <v>7282</v>
+      </c>
+      <c r="B227" s="50" t="s">
+        <v>7284</v>
+      </c>
+      <c r="C227" s="50" t="s">
+        <v>7283</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="49" t="s">
+        <v>7285</v>
+      </c>
+      <c r="B228" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="C228" s="50" t="s">
+        <v>7286</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="49" t="s">
+        <v>7287</v>
+      </c>
+      <c r="B229" s="50" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C229" s="50" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="49" t="s">
+        <v>7288</v>
+      </c>
+      <c r="B230" s="50" t="s">
+        <v>7434</v>
+      </c>
+      <c r="C230" s="50" t="s">
+        <v>7435</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="49" t="s">
+        <v>7291</v>
+      </c>
+      <c r="B231" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C231" s="50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="49" t="s">
+        <v>7292</v>
+      </c>
+      <c r="B232" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="C232" s="50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="49" t="s">
+        <v>7293</v>
+      </c>
+      <c r="B233" s="50" t="s">
+        <v>7295</v>
+      </c>
+      <c r="C233" s="50" t="s">
+        <v>7294</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="67" t="s">
+        <v>7296</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>7298</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>7297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="67" t="s">
+        <v>7299</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>7301</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="67" t="s">
+        <v>7302</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>7304</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>7303</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="67" t="s">
+        <v>7305</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>7307</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>7306</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="67" t="s">
+        <v>7308</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>7310</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>7309</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="67" t="s">
+        <v>7311</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>7313</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="67" t="s">
+        <v>7314</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>7316</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>7315</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="67" t="s">
+        <v>7317</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>7319</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>7318</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="67" t="s">
+        <v>7320</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>7322</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>7321</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="68" t="s">
+        <v>7323</v>
+      </c>
+      <c r="B243" s="69" t="s">
+        <v>7325</v>
+      </c>
+      <c r="C243" s="69" t="s">
+        <v>7324</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="49" t="s">
+        <v>7326</v>
+      </c>
+      <c r="B244" s="50" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C244" s="50" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="49" t="s">
+        <v>7327</v>
+      </c>
+      <c r="B245" s="50" t="s">
+        <v>7329</v>
+      </c>
+      <c r="C245" s="50" t="s">
+        <v>7328</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="49" t="s">
+        <v>7330</v>
+      </c>
+      <c r="B246" s="50" t="s">
+        <v>7332</v>
+      </c>
+      <c r="C246" s="50" t="s">
+        <v>7331</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="49" t="s">
+        <v>7333</v>
+      </c>
+      <c r="B247" s="50" t="s">
+        <v>7335</v>
+      </c>
+      <c r="C247" s="50" t="s">
+        <v>7334</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="49" t="s">
+        <v>7336</v>
+      </c>
+      <c r="B248" s="50" t="s">
+        <v>7338</v>
+      </c>
+      <c r="C248" s="50" t="s">
+        <v>7337</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="49" t="s">
+        <v>7339</v>
+      </c>
+      <c r="B249" s="50" t="s">
+        <v>7341</v>
+      </c>
+      <c r="C249" s="50" t="s">
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="49" t="s">
+        <v>7342</v>
+      </c>
+      <c r="B250" s="50" t="s">
+        <v>7344</v>
+      </c>
+      <c r="C250" s="50" t="s">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="49" t="s">
+        <v>7345</v>
+      </c>
+      <c r="B251" s="50" t="s">
+        <v>7347</v>
+      </c>
+      <c r="C251" s="50" t="s">
+        <v>7346</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="49" t="s">
+        <v>7348</v>
+      </c>
+      <c r="B252" s="50" t="s">
+        <v>7350</v>
+      </c>
+      <c r="C252" s="50" t="s">
+        <v>7349</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="67" t="s">
+        <v>7351</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>7353</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="67" t="s">
+        <v>7354</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>7356</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>7355</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="67" t="s">
+        <v>7357</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>7359</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>7358</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="67" t="s">
+        <v>7360</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>7362</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>7361</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="67" t="s">
+        <v>7363</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>7365</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>7364</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="67" t="s">
+        <v>7366</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>7368</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>7367</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="67" t="s">
+        <v>7369</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>7371</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="67" t="s">
+        <v>7372</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>7374</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>7373</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="67" t="s">
+        <v>7375</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>7377</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>7376</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="67" t="s">
+        <v>7378</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>7380</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>7379</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="67" t="s">
+        <v>7381</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>7383</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="67" t="s">
+        <v>7384</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>7386</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>7385</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="67" t="s">
+        <v>7387</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>7436</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>7388</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="67" t="s">
+        <v>7390</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>7392</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>7391</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="67" t="s">
+        <v>7393</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>7395</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="67" t="s">
+        <v>7396</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>7398</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>7397</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="68" t="s">
+        <v>7399</v>
+      </c>
+      <c r="B269" s="69" t="s">
+        <v>646</v>
+      </c>
+      <c r="C269" s="69" t="s">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="67" t="s">
+        <v>7401</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="67" t="s">
+        <v>7403</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>7404</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>6595</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="67" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="67" t="s">
+        <v>763</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="67" t="s">
+        <v>766</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="67" t="s">
+        <v>769</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="67" t="s">
+        <v>7406</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>7407</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="67" t="s">
+        <v>7408</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="67" t="s">
+        <v>7409</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="67" t="s">
+        <v>7411</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="67" t="s">
+        <v>772</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="67" t="s">
+        <v>6615</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>6616</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="67" t="s">
+        <v>775</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="B283" s="50" t="s">
+        <v>779</v>
+      </c>
+      <c r="C283" s="50" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="49" t="s">
+        <v>781</v>
+      </c>
+      <c r="B284" s="50" t="s">
+        <v>782</v>
+      </c>
+      <c r="C284" s="50" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="49" t="s">
+        <v>784</v>
+      </c>
+      <c r="B285" s="50" t="s">
+        <v>785</v>
+      </c>
+      <c r="C285" s="50" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="49" t="s">
+        <v>787</v>
+      </c>
+      <c r="B286" s="50" t="s">
+        <v>788</v>
+      </c>
+      <c r="C286" s="50" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="B287" s="50" t="s">
+        <v>791</v>
+      </c>
+      <c r="C287" s="50" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="49" t="s">
+        <v>793</v>
+      </c>
+      <c r="B288" s="50" t="s">
+        <v>794</v>
+      </c>
+      <c r="C288" s="50" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="49" t="s">
+        <v>796</v>
+      </c>
+      <c r="B289" s="50" t="s">
+        <v>797</v>
+      </c>
+      <c r="C289" s="50" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="67" t="s">
+        <v>799</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="67" t="s">
+        <v>7413</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="49" t="s">
+        <v>802</v>
+      </c>
+      <c r="B292" s="50" t="s">
+        <v>803</v>
+      </c>
+      <c r="C292" s="50" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="67" t="s">
+        <v>805</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="67" t="s">
+        <v>807</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="67" t="s">
+        <v>809</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="67" t="s">
+        <v>7414</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>7415</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="67" t="s">
+        <v>7416</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>7417</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="67" t="s">
+        <v>812</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="67" t="s">
+        <v>815</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="67" t="s">
+        <v>818</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="67" t="s">
+        <v>821</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="67" t="s">
+        <v>7418</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>7420</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>7419</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="67" t="s">
+        <v>7421</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>7423</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>7422</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="67" t="s">
+        <v>824</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="67" t="s">
+        <v>7424</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>7437</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>7425</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="67" t="s">
+        <v>7426</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>7427</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="67" t="s">
+        <v>7428</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>7429</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="67" t="s">
+        <v>827</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="67" t="s">
+        <v>830</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="67" t="s">
+        <v>7430</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>7431</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="67" t="s">
+        <v>833</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="67" t="s">
+        <v>836</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="C312" s="8" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="67" t="s">
+        <v>839</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="67" t="s">
+        <v>841</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="67" t="s">
+        <v>844</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="67" t="s">
+        <v>847</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="67" t="s">
+        <v>850</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="67" t="s">
+        <v>853</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="67" t="s">
+        <v>856</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="67" t="s">
+        <v>859</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="67" t="s">
+        <v>862</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>7438</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="67" t="s">
+        <v>865</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="67" t="s">
+        <v>868</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="67" t="s">
+        <v>871</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="67" t="s">
+        <v>874</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="67" t="s">
+        <v>877</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="67" t="s">
+        <v>880</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="67" t="s">
+        <v>883</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="67" t="s">
+        <v>886</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="67" t="s">
+        <v>889</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="67" t="s">
+        <v>891</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="67" t="s">
+        <v>894</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="67" t="s">
+        <v>897</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="67" t="s">
+        <v>900</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="67" t="s">
+        <v>902</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="67" t="s">
+        <v>905</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="C336" s="8" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="67" t="s">
+        <v>908</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="67" t="s">
+        <v>911</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="67" t="s">
+        <v>914</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="67" t="s">
+        <v>917</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="67" t="s">
+        <v>920</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="67" t="s">
+        <v>923</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="67" t="s">
+        <v>926</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="67" t="s">
+        <v>929</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="67" t="s">
+        <v>821</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="67" t="s">
+        <v>932</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="67" t="s">
+        <v>934</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="68" t="s">
+        <v>936</v>
+      </c>
+      <c r="B348" s="69" t="s">
+        <v>937</v>
+      </c>
+      <c r="C348" s="69" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="67" t="s">
+        <v>938</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="67" t="s">
+        <v>940</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="67" t="s">
+        <v>943</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="67" t="s">
+        <v>946</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="67" t="s">
+        <v>949</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="67" t="s">
+        <v>952</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="67" t="s">
+        <v>954</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="67" t="s">
+        <v>957</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="67" t="s">
+        <v>960</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="67" t="s">
+        <v>962</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="67" t="s">
+        <v>965</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="67" t="s">
+        <v>968</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="67" t="s">
+        <v>971</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="67" t="s">
+        <v>974</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="67" t="s">
+        <v>977</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="67" t="s">
+        <v>980</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="67" t="s">
+        <v>983</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="67" t="s">
+        <v>985</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="67" t="s">
+        <v>987</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="67" t="s">
+        <v>990</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="67" t="s">
+        <v>971</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="67" t="s">
+        <v>993</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="67" t="s">
+        <v>996</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="67" t="s">
+        <v>999</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="67" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="67" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="67" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="67" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="68" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B377" s="69" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C377" s="69" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="67" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="67" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="67" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="67" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="67" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>7439</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="67" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="67" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="67" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="67" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="67" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="68" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B389" s="69" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C389" s="69" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="67" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="67" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="67" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="67" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="67" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="67" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="67" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="67" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="67" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="67" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="67" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="67" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="67" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="67" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="67" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="67" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B82:B83"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C142" r:id="rId1" display="https://slovari.yandex.ru/think over/en-ru"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -40824,6 +46057,389 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:C33"/>
     </sheetView>
@@ -41203,7 +46819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C224"/>
   <sheetViews>
@@ -43692,7 +49308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
@@ -44559,7 +50175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -44942,7 +50558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -45378,7 +50994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
@@ -46179,7 +51795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
